--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1229666.797335806</v>
+        <v>1228918.395824884</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4354305.171692323</v>
+        <v>4354305.171692325</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1370,13 +1370,13 @@
         <v>260.8850331288904</v>
       </c>
       <c r="C11" t="n">
-        <v>248.8963500865722</v>
+        <v>248.8963500865721</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>96.97549978249899</v>
       </c>
       <c r="E11" t="n">
-        <v>261.6197917010057</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>194.1880049094285</v>
       </c>
       <c r="I11" t="n">
-        <v>18.95690544140075</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.5946441204903</v>
+        <v>42.59464412049024</v>
       </c>
       <c r="T11" t="n">
-        <v>10.46488401349191</v>
+        <v>90.2954764488676</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.0708631572776</v>
       </c>
       <c r="V11" t="n">
         <v>204.3914103690695</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>229.6915098470264</v>
       </c>
       <c r="X11" t="n">
-        <v>248.9917680797731</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>260.3883658759718</v>
@@ -1455,10 +1455,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>16.33965884974896</v>
+        <v>16.3396588497489</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>4.128789075675826</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.39728379887479</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S12" t="n">
-        <v>16.14651652925644</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T12" t="n">
         <v>185.5164475248238</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2889227376699</v>
+        <v>216.2443237527121</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>109.6846390850745</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>66.71974724703477</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.37804209296843</v>
+        <v>61.37804209296837</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.5017440035875</v>
+        <v>52.50174400358745</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898799</v>
+        <v>38.70173884898793</v>
       </c>
       <c r="D13" t="n">
-        <v>22.32310324656638</v>
+        <v>22.32310324656632</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234582</v>
+        <v>21.27085310234577</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053213</v>
+        <v>21.73777743053208</v>
       </c>
       <c r="G13" t="n">
-        <v>37.74587087490177</v>
+        <v>37.74587087490171</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016419</v>
+        <v>26.19044893016413</v>
       </c>
       <c r="I13" t="n">
-        <v>5.525274884455246</v>
+        <v>5.525274884455191</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.820769996597146</v>
+        <v>6.820769996597091</v>
       </c>
       <c r="S13" t="n">
-        <v>77.70832139488067</v>
+        <v>77.70832139488061</v>
       </c>
       <c r="T13" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296225</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0857237976438</v>
+        <v>155.0857237976437</v>
       </c>
       <c r="V13" t="n">
-        <v>128.9098804032131</v>
+        <v>128.909880403213</v>
       </c>
       <c r="W13" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738263</v>
       </c>
       <c r="X13" t="n">
-        <v>99.72186846962947</v>
+        <v>99.72186846962941</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.59673622569716</v>
+        <v>90.5967362256971</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>260.8850331288904</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865722</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>239.8776541311001</v>
       </c>
       <c r="E14" t="n">
-        <v>261.6197917010057</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>280.7916077889828</v>
       </c>
       <c r="G14" t="n">
-        <v>42.99078434351168</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>194.1880049094285</v>
       </c>
       <c r="I14" t="n">
-        <v>18.95690544140075</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.59464412049029</v>
+        <v>42.59464412049024</v>
       </c>
       <c r="T14" t="n">
-        <v>90.29547644886766</v>
+        <v>90.2954764488676</v>
       </c>
       <c r="U14" t="n">
         <v>123.0708631572776</v>
@@ -1667,13 +1667,13 @@
         <v>204.3914103690695</v>
       </c>
       <c r="W14" t="n">
-        <v>229.6915098470265</v>
+        <v>54.89409779601653</v>
       </c>
       <c r="X14" t="n">
-        <v>248.9917680797731</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>260.3883658759718</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>30.86856503750627</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>8.232179645741468</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>16.3396588497489</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1737,19 +1737,19 @@
         <v>145.364587523205</v>
       </c>
       <c r="T15" t="n">
-        <v>95.69566032975038</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U15" t="n">
         <v>216.2889227376699</v>
       </c>
       <c r="V15" t="n">
-        <v>96.89359533220085</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>109.6846390850745</v>
+        <v>149.0819228839497</v>
       </c>
       <c r="X15" t="n">
-        <v>66.71974724703483</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.5017440035875</v>
+        <v>52.50174400358745</v>
       </c>
       <c r="C16" t="n">
-        <v>38.70173884898799</v>
+        <v>38.70173884898793</v>
       </c>
       <c r="D16" t="n">
-        <v>22.32310324656638</v>
+        <v>22.32310324656632</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234582</v>
+        <v>21.27085310234577</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053213</v>
+        <v>21.73777743053208</v>
       </c>
       <c r="G16" t="n">
-        <v>37.74587087490177</v>
+        <v>37.74587087490171</v>
       </c>
       <c r="H16" t="n">
-        <v>26.19044893016419</v>
+        <v>26.19044893016413</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455246</v>
+        <v>5.525274884455191</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.820769996597146</v>
+        <v>6.820769996597091</v>
       </c>
       <c r="S16" t="n">
-        <v>77.70832139488067</v>
+        <v>77.70832139488061</v>
       </c>
       <c r="T16" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296225</v>
       </c>
       <c r="U16" t="n">
-        <v>155.0857237976438</v>
+        <v>155.0857237976437</v>
       </c>
       <c r="V16" t="n">
-        <v>128.9098804032131</v>
+        <v>128.909880403213</v>
       </c>
       <c r="W16" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738263</v>
       </c>
       <c r="X16" t="n">
-        <v>99.72186846962947</v>
+        <v>99.72186846962941</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569716</v>
+        <v>90.5967362256971</v>
       </c>
     </row>
     <row r="17">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>41.39155580984229</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>93.20914848566733</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.1232045289026</v>
@@ -1941,7 +1941,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>185.5164475248238</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T19" t="n">
         <v>10.19446748075492</v>
       </c>
       <c r="U19" t="n">
-        <v>267.5606879238213</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V19" t="n">
-        <v>38.61440395434545</v>
+        <v>170.497293131107</v>
       </c>
       <c r="W19" t="n">
         <v>63.78129002495871</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>9.426392020761824</v>
       </c>
       <c r="Y19" t="n">
         <v>0.3012597768295109</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S21" t="n">
         <v>145.364587523205</v>
@@ -2223,10 +2223,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>21.89922641649237</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>102.3015891889276</v>
       </c>
     </row>
     <row r="22">
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
         <v>206.9263923888292</v>
       </c>
       <c r="T22" t="n">
-        <v>229.7080149235711</v>
+        <v>10.19446748075492</v>
       </c>
       <c r="U22" t="n">
         <v>64.79024734877613</v>
       </c>
       <c r="V22" t="n">
-        <v>38.61440395434545</v>
+        <v>253.9719995833775</v>
       </c>
       <c r="W22" t="n">
-        <v>195.6641792017205</v>
+        <v>63.78129002495871</v>
       </c>
       <c r="X22" t="n">
         <v>9.426392020761824</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.5895566800227</v>
+        <v>170.5895566800228</v>
       </c>
       <c r="C23" t="n">
         <v>158.6008736377045</v>
       </c>
       <c r="D23" t="n">
-        <v>149.5821776822324</v>
+        <v>149.5821776822325</v>
       </c>
       <c r="E23" t="n">
         <v>171.324315252138</v>
       </c>
       <c r="F23" t="n">
-        <v>190.4961313401151</v>
+        <v>190.4961313401152</v>
       </c>
       <c r="G23" t="n">
-        <v>191.835039588541</v>
+        <v>191.8350395885411</v>
       </c>
       <c r="H23" t="n">
-        <v>103.8925284605608</v>
+        <v>103.8925284605609</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>32.77538670840995</v>
+        <v>32.77538670841</v>
       </c>
       <c r="V23" t="n">
-        <v>114.0959339202018</v>
+        <v>114.0959339202019</v>
       </c>
       <c r="W23" t="n">
-        <v>139.3960333981587</v>
+        <v>139.3960333981588</v>
       </c>
       <c r="X23" t="n">
         <v>158.6962916309054</v>
       </c>
       <c r="Y23" t="n">
-        <v>170.0928894271041</v>
+        <v>170.0928894271042</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2406,10 +2406,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1232045289026</v>
+        <v>30.20902894010292</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S24" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2463,7 +2463,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>44.22856330608243</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>119.295734122775</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>52.28151647875077</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>229.7080149235711</v>
       </c>
       <c r="U25" t="n">
-        <v>64.79024734877608</v>
+        <v>64.79024734877613</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>38.61440395434545</v>
       </c>
       <c r="W25" t="n">
-        <v>63.78129002495865</v>
+        <v>63.78129002495871</v>
       </c>
       <c r="X25" t="n">
-        <v>9.426392020761767</v>
+        <v>9.426392020761824</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.301259776829454</v>
+        <v>0.3012597768295109</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.44126410211649</v>
+        <v>70.44126410211651</v>
       </c>
       <c r="T26" t="n">
         <v>118.1420964304939</v>
@@ -2652,7 +2652,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I27" t="n">
-        <v>56.74941852193289</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.44188278383302</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S27" t="n">
         <v>145.364587523205</v>
@@ -2728,10 +2728,10 @@
         <v>65.59249085652796</v>
       </c>
       <c r="H28" t="n">
-        <v>54.03706891179039</v>
+        <v>54.0370689117904</v>
       </c>
       <c r="I28" t="n">
-        <v>33.37189486608145</v>
+        <v>33.37189486608146</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66738997822335</v>
+        <v>34.66738997822334</v>
       </c>
       <c r="S28" t="n">
         <v>105.5549413765069</v>
@@ -2810,7 +2810,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I29" t="n">
-        <v>46.80352542302694</v>
+        <v>46.80352542302693</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.44126410211649</v>
+        <v>70.44126410211648</v>
       </c>
       <c r="T29" t="n">
         <v>118.1420964304939</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S30" t="n">
         <v>145.364587523205</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.34836398521369</v>
+        <v>80.34836398521368</v>
       </c>
       <c r="C31" t="n">
-        <v>66.54835883061418</v>
+        <v>66.54835883061416</v>
       </c>
       <c r="D31" t="n">
-        <v>50.16972322819257</v>
+        <v>50.16972322819255</v>
       </c>
       <c r="E31" t="n">
-        <v>49.11747308397202</v>
+        <v>49.117473083972</v>
       </c>
       <c r="F31" t="n">
-        <v>49.58439741215832</v>
+        <v>49.58439741215831</v>
       </c>
       <c r="G31" t="n">
-        <v>65.59249085652795</v>
+        <v>65.59249085652793</v>
       </c>
       <c r="H31" t="n">
-        <v>54.03706891179039</v>
+        <v>54.03706891179037</v>
       </c>
       <c r="I31" t="n">
-        <v>33.37189486608145</v>
+        <v>33.37189486608143</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66738997822333</v>
+        <v>34.66738997822331</v>
       </c>
       <c r="S31" t="n">
-        <v>105.5549413765069</v>
+        <v>105.5549413765068</v>
       </c>
       <c r="T31" t="n">
-        <v>128.3365639112488</v>
+        <v>128.3365639112487</v>
       </c>
       <c r="U31" t="n">
         <v>182.93234377927</v>
@@ -3013,7 +3013,7 @@
         <v>181.9233864554525</v>
       </c>
       <c r="X31" t="n">
-        <v>127.5684884512557</v>
+        <v>127.5684884512556</v>
       </c>
       <c r="Y31" t="n">
         <v>118.4433562073233</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7316531105167</v>
+        <v>288.7316531105165</v>
       </c>
       <c r="C32" t="n">
-        <v>276.7429700681984</v>
+        <v>276.7429700681982</v>
       </c>
       <c r="D32" t="n">
-        <v>267.7242741127264</v>
+        <v>267.7242741127262</v>
       </c>
       <c r="E32" t="n">
-        <v>289.4664116826319</v>
+        <v>289.4664116826318</v>
       </c>
       <c r="F32" t="n">
-        <v>308.6382277706091</v>
+        <v>308.6382277706089</v>
       </c>
       <c r="G32" t="n">
-        <v>309.977136019035</v>
+        <v>309.9771360190348</v>
       </c>
       <c r="H32" t="n">
-        <v>222.0346248910548</v>
+        <v>222.0346248910546</v>
       </c>
       <c r="I32" t="n">
-        <v>46.803525423027</v>
+        <v>46.80352542302683</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.44126410211655</v>
+        <v>70.44126410211638</v>
       </c>
       <c r="T32" t="n">
-        <v>118.1420964304939</v>
+        <v>118.1420964304938</v>
       </c>
       <c r="U32" t="n">
-        <v>150.9174831389039</v>
+        <v>150.9174831389037</v>
       </c>
       <c r="V32" t="n">
-        <v>232.2380303506958</v>
+        <v>232.2380303506956</v>
       </c>
       <c r="W32" t="n">
-        <v>257.5381298286527</v>
+        <v>257.5381298286525</v>
       </c>
       <c r="X32" t="n">
-        <v>276.8383880613993</v>
+        <v>276.8383880613991</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.2349858575981</v>
+        <v>288.2349858575979</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S33" t="n">
         <v>145.364587523205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.34836398521375</v>
+        <v>80.34836398521358</v>
       </c>
       <c r="C34" t="n">
-        <v>66.54835883061423</v>
+        <v>66.54835883061406</v>
       </c>
       <c r="D34" t="n">
-        <v>50.16972322819262</v>
+        <v>50.16972322819245</v>
       </c>
       <c r="E34" t="n">
-        <v>49.11747308397207</v>
+        <v>49.1174730839719</v>
       </c>
       <c r="F34" t="n">
-        <v>49.58439741215838</v>
+        <v>49.58439741215821</v>
       </c>
       <c r="G34" t="n">
-        <v>65.59249085652802</v>
+        <v>65.59249085652785</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03706891179043</v>
+        <v>54.03706891179026</v>
       </c>
       <c r="I34" t="n">
-        <v>33.37189486608149</v>
+        <v>33.37189486608133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.6673899782234</v>
+        <v>34.66738997822323</v>
       </c>
       <c r="S34" t="n">
-        <v>105.5549413765069</v>
+        <v>105.5549413765067</v>
       </c>
       <c r="T34" t="n">
-        <v>128.3365639112488</v>
+        <v>128.3365639112486</v>
       </c>
       <c r="U34" t="n">
-        <v>182.93234377927</v>
+        <v>182.9323437792699</v>
       </c>
       <c r="V34" t="n">
-        <v>156.7565003848393</v>
+        <v>156.7565003848392</v>
       </c>
       <c r="W34" t="n">
-        <v>181.9233864554526</v>
+        <v>181.9233864554524</v>
       </c>
       <c r="X34" t="n">
-        <v>127.5684884512557</v>
+        <v>127.5684884512555</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4433562073234</v>
+        <v>118.4433562073232</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.0531522757346</v>
+        <v>224.0531522757345</v>
       </c>
       <c r="C35" t="n">
         <v>212.0644692334163</v>
       </c>
       <c r="D35" t="n">
-        <v>203.0457732779443</v>
+        <v>203.0457732779442</v>
       </c>
       <c r="E35" t="n">
         <v>224.7879108478498</v>
@@ -3278,7 +3278,7 @@
         <v>243.959726935827</v>
       </c>
       <c r="G35" t="n">
-        <v>245.2986351842529</v>
+        <v>245.2986351842528</v>
       </c>
       <c r="H35" t="n">
         <v>157.3561240562726</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.762763267334428</v>
+        <v>5.762763267334407</v>
       </c>
       <c r="T35" t="n">
-        <v>53.46359559571179</v>
+        <v>53.46359559571178</v>
       </c>
       <c r="U35" t="n">
-        <v>86.23898230412178</v>
+        <v>86.23898230412175</v>
       </c>
       <c r="V35" t="n">
         <v>167.5595295159137</v>
@@ -3332,7 +3332,7 @@
         <v>212.1598872266172</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.556485022816</v>
+        <v>223.5564850228159</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S36" t="n">
         <v>145.364587523205</v>
@@ -3408,7 +3408,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409837</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.66986315043164</v>
+        <v>15.66986315043161</v>
       </c>
       <c r="C37" t="n">
-        <v>1.86985799583212</v>
+        <v>1.869857995832092</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9139900217459016</v>
+        <v>0.9139900217458732</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>40.8764405417248</v>
+        <v>40.87644054172478</v>
       </c>
       <c r="T37" t="n">
-        <v>63.6580630764667</v>
+        <v>75.81921495376427</v>
       </c>
       <c r="U37" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V37" t="n">
-        <v>104.239151427355</v>
+        <v>92.0779995500572</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X37" t="n">
-        <v>62.8899876164736</v>
+        <v>62.88998761647358</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.76485537254129</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>224.0531522757346</v>
       </c>
       <c r="C38" t="n">
-        <v>212.0644692334164</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D38" t="n">
-        <v>203.0457732779444</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E38" t="n">
-        <v>224.7879108478499</v>
+        <v>224.7879108478498</v>
       </c>
       <c r="F38" t="n">
-        <v>243.9597269358271</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G38" t="n">
-        <v>245.298635184253</v>
+        <v>245.2986351842528</v>
       </c>
       <c r="H38" t="n">
-        <v>157.3561240562727</v>
+        <v>157.3561240562726</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.762763267334513</v>
+        <v>5.762763267334435</v>
       </c>
       <c r="T38" t="n">
-        <v>53.46359559571188</v>
+        <v>53.46359559571181</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412186</v>
+        <v>86.23898230412178</v>
       </c>
       <c r="V38" t="n">
-        <v>167.5595295159138</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W38" t="n">
-        <v>192.8596289938707</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X38" t="n">
-        <v>212.1598872266173</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y38" t="n">
         <v>223.556485022816</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S39" t="n">
         <v>145.364587523205</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043172</v>
+        <v>15.66986315043164</v>
       </c>
       <c r="C40" t="n">
-        <v>1.869857995832206</v>
+        <v>1.86985799583212</v>
       </c>
       <c r="D40" t="n">
-        <v>12.16115187729693</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9139900217459869</v>
+        <v>0.9139900217459016</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>40.87644054172488</v>
+        <v>40.8764405417248</v>
       </c>
       <c r="T40" t="n">
-        <v>229.7080149235711</v>
+        <v>226.0420902338953</v>
       </c>
       <c r="U40" t="n">
-        <v>118.253842944488</v>
+        <v>118.2538429444879</v>
       </c>
       <c r="V40" t="n">
-        <v>92.07799955005731</v>
+        <v>92.07799955005723</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2448856206706</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647369</v>
+        <v>62.8899876164736</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.76485537254138</v>
+        <v>53.76485537254129</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C41" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D41" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E41" t="n">
         <v>224.7879108478498</v>
       </c>
       <c r="F41" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G41" t="n">
-        <v>245.2986351842528</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H41" t="n">
         <v>157.3561240562726</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.762763267334371</v>
+        <v>5.76276326733443</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571174</v>
+        <v>53.46359559571179</v>
       </c>
       <c r="U41" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412178</v>
       </c>
       <c r="V41" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W41" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X41" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I42" t="n">
-        <v>56.7494185219329</v>
+        <v>56.74941852193349</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S42" t="n">
         <v>145.364587523205</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043164</v>
       </c>
       <c r="C43" t="n">
-        <v>1.869857995832064</v>
+        <v>1.86985799583212</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9139900217458448</v>
+        <v>0.9139900217459016</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.16115187729819</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.87644054172474</v>
+        <v>40.8764405417248</v>
       </c>
       <c r="T43" t="n">
-        <v>63.65806307646664</v>
+        <v>75.81921495376405</v>
       </c>
       <c r="U43" t="n">
-        <v>118.2538429444879</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V43" t="n">
-        <v>92.07799955005717</v>
+        <v>92.07799955005723</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X43" t="n">
-        <v>62.88998761647355</v>
+        <v>62.8899876164736</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.76485537254123</v>
+        <v>53.76485537254129</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C44" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D44" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E44" t="n">
         <v>224.7879108478498</v>
       </c>
       <c r="F44" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G44" t="n">
         <v>245.2986351842528</v>
       </c>
       <c r="H44" t="n">
-        <v>157.3561240562726</v>
+        <v>157.3561240562717</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.762763267334378</v>
+        <v>5.762763267334435</v>
       </c>
       <c r="T44" t="n">
-        <v>53.46359559571175</v>
+        <v>53.46359559571181</v>
       </c>
       <c r="U44" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412178</v>
       </c>
       <c r="V44" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W44" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X44" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S45" t="n">
         <v>145.364587523205</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043164</v>
       </c>
       <c r="C46" t="n">
-        <v>1.869857995832064</v>
+        <v>1.86985799583212</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9139900217458448</v>
+        <v>0.9139900217459016</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.87644054172474</v>
+        <v>40.8764405417248</v>
       </c>
       <c r="T46" t="n">
-        <v>229.7080149235711</v>
+        <v>63.6580630764667</v>
       </c>
       <c r="U46" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V46" t="n">
-        <v>92.07799955005717</v>
+        <v>92.07799955005723</v>
       </c>
       <c r="W46" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X46" t="n">
-        <v>75.05113949377164</v>
+        <v>62.8899876164736</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.76485537254123</v>
+        <v>216.1488825299699</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>767.0741849620297</v>
+        <v>581.6184300530336</v>
       </c>
       <c r="C11" t="n">
-        <v>515.6637303291284</v>
+        <v>330.2079754201325</v>
       </c>
       <c r="D11" t="n">
-        <v>515.6637303291284</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="E11" t="n">
-        <v>251.4013144695266</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="F11" t="n">
-        <v>251.4013144695266</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="G11" t="n">
-        <v>251.4013144695266</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="H11" t="n">
-        <v>55.25181456101291</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I11" t="n">
         <v>36.10342522626458</v>
@@ -5042,22 +5042,22 @@
         <v>158.0430464355079</v>
       </c>
       <c r="K11" t="n">
-        <v>473.0321469193355</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="L11" t="n">
-        <v>913.7739862102275</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="M11" t="n">
-        <v>1360.553873385252</v>
+        <v>604.8229336105321</v>
       </c>
       <c r="N11" t="n">
-        <v>1360.553873385252</v>
+        <v>1051.602820785556</v>
       </c>
       <c r="O11" t="n">
-        <v>1764.699943024868</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P11" t="n">
-        <v>1764.699943024868</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q11" t="n">
         <v>1805.171261313229</v>
@@ -5066,25 +5066,25 @@
         <v>1805.171261313229</v>
       </c>
       <c r="S11" t="n">
-        <v>1762.146368262228</v>
+        <v>1762.146368262229</v>
       </c>
       <c r="T11" t="n">
-        <v>1751.57577834961</v>
+        <v>1670.938816293676</v>
       </c>
       <c r="U11" t="n">
-        <v>1751.57577834961</v>
+        <v>1546.624813104507</v>
       </c>
       <c r="V11" t="n">
-        <v>1545.119808279843</v>
+        <v>1340.168843034739</v>
       </c>
       <c r="W11" t="n">
-        <v>1545.119808279843</v>
+        <v>1108.157216926632</v>
       </c>
       <c r="X11" t="n">
-        <v>1293.612971835628</v>
+        <v>1108.157216926632</v>
       </c>
       <c r="Y11" t="n">
-        <v>1030.594420445757</v>
+        <v>845.1386655367614</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>584.679761627119</v>
+        <v>454.1564575928275</v>
       </c>
       <c r="C12" t="n">
-        <v>422.9760888680736</v>
+        <v>292.4527848337822</v>
       </c>
       <c r="D12" t="n">
-        <v>284.1374518582857</v>
+        <v>153.6141478239942</v>
       </c>
       <c r="E12" t="n">
-        <v>267.6327459494484</v>
+        <v>137.1094419151569</v>
       </c>
       <c r="F12" t="n">
         <v>132.9389478993228</v>
@@ -5118,52 +5118,52 @@
         <v>36.10342522626458</v>
       </c>
       <c r="J12" t="n">
-        <v>126.102135052085</v>
+        <v>115.2167064807857</v>
       </c>
       <c r="K12" t="n">
-        <v>406.4308839238592</v>
+        <v>115.2167064807857</v>
       </c>
       <c r="L12" t="n">
-        <v>840.610957857998</v>
+        <v>549.3967804149245</v>
       </c>
       <c r="M12" t="n">
-        <v>1287.390845033022</v>
+        <v>996.1766675899487</v>
       </c>
       <c r="N12" t="n">
-        <v>1287.390845033022</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="O12" t="n">
-        <v>1287.390845033022</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="P12" t="n">
-        <v>1649.605551581278</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q12" t="n">
         <v>1805.171261313229</v>
       </c>
       <c r="R12" t="n">
-        <v>1765.376025152749</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.066412496935</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.676061461759</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="U12" t="n">
-        <v>1343.20240213078</v>
+        <v>1212.679098096488</v>
       </c>
       <c r="V12" t="n">
-        <v>1114.806779579113</v>
+        <v>984.283475544822</v>
       </c>
       <c r="W12" t="n">
-        <v>1004.014214846715</v>
+        <v>742.967606778132</v>
       </c>
       <c r="X12" t="n">
-        <v>806.0972267245096</v>
+        <v>675.5739226902181</v>
       </c>
       <c r="Y12" t="n">
-        <v>744.0992044083798</v>
+        <v>613.5759003740884</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3509679716722</v>
+        <v>211.3509679716718</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2583024676439</v>
+        <v>172.2583024676436</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7097133296981</v>
+        <v>149.7097133296978</v>
       </c>
       <c r="E13" t="n">
-        <v>128.2240031253083</v>
+        <v>128.2240031253081</v>
       </c>
       <c r="F13" t="n">
-        <v>106.2666521853769</v>
+        <v>106.2666521853767</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13950988749633</v>
+        <v>68.13950988749622</v>
       </c>
       <c r="H13" t="n">
-        <v>41.68451096813857</v>
+        <v>41.68451096813851</v>
       </c>
       <c r="I13" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J13" t="n">
-        <v>123.8279990958396</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K13" t="n">
-        <v>285.0613137866571</v>
+        <v>100.3730120089408</v>
       </c>
       <c r="L13" t="n">
-        <v>424.9095462282304</v>
+        <v>296.9836559442205</v>
       </c>
       <c r="M13" t="n">
-        <v>584.2773462222484</v>
+        <v>584.2773462222476</v>
       </c>
       <c r="N13" t="n">
-        <v>743.0901936062155</v>
+        <v>743.0901936062147</v>
       </c>
       <c r="O13" t="n">
-        <v>878.861009448019</v>
+        <v>878.8610094480182</v>
       </c>
       <c r="P13" t="n">
-        <v>973.7522215644188</v>
+        <v>973.7522215644181</v>
       </c>
       <c r="Q13" t="n">
         <v>1086.009306047124</v>
       </c>
       <c r="R13" t="n">
-        <v>1079.119639383895</v>
+        <v>1079.119639383894</v>
       </c>
       <c r="S13" t="n">
-        <v>1000.626385449672</v>
+        <v>1000.626385449671</v>
       </c>
       <c r="T13" t="n">
-        <v>899.1213915813664</v>
+        <v>899.1213915813659</v>
       </c>
       <c r="U13" t="n">
-        <v>742.4691453211202</v>
+        <v>742.4691453211196</v>
       </c>
       <c r="V13" t="n">
-        <v>612.2571449138343</v>
+        <v>612.2571449138337</v>
       </c>
       <c r="W13" t="n">
-        <v>456.6240474655249</v>
+        <v>456.6240474655243</v>
       </c>
       <c r="X13" t="n">
-        <v>355.8948873951921</v>
+        <v>355.8948873951916</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.3830326217606</v>
+        <v>264.3830326217602</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>856.6503804824162</v>
+        <v>758.1814725288014</v>
       </c>
       <c r="C14" t="n">
-        <v>605.239925849515</v>
+        <v>758.1814725288014</v>
       </c>
       <c r="D14" t="n">
-        <v>362.93926511103</v>
+        <v>515.8808117903164</v>
       </c>
       <c r="E14" t="n">
-        <v>98.67684925142866</v>
+        <v>515.8808117903164</v>
       </c>
       <c r="F14" t="n">
-        <v>98.67684925142866</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="G14" t="n">
-        <v>55.25181456101282</v>
+        <v>232.2529251347782</v>
       </c>
       <c r="H14" t="n">
-        <v>55.25181456101282</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I14" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J14" t="n">
-        <v>40.53979704720257</v>
+        <v>158.0430464355079</v>
       </c>
       <c r="K14" t="n">
-        <v>355.5288975310302</v>
+        <v>473.0321469193354</v>
       </c>
       <c r="L14" t="n">
-        <v>796.2707368219221</v>
+        <v>913.7739862102273</v>
       </c>
       <c r="M14" t="n">
-        <v>1243.050623996946</v>
+        <v>1360.553873385252</v>
       </c>
       <c r="N14" t="n">
-        <v>1243.050623996946</v>
+        <v>1360.553873385252</v>
       </c>
       <c r="O14" t="n">
-        <v>1647.196693636563</v>
+        <v>1492.399400986652</v>
       </c>
       <c r="P14" t="n">
-        <v>1647.196693636563</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q14" t="n">
         <v>1805.171261313229</v>
@@ -5309,19 +5309,19 @@
         <v>1670.938816293676</v>
       </c>
       <c r="U14" t="n">
-        <v>1546.624813104506</v>
+        <v>1546.624813104507</v>
       </c>
       <c r="V14" t="n">
         <v>1340.168843034739</v>
       </c>
       <c r="W14" t="n">
-        <v>1108.157216926631</v>
+        <v>1284.7202594024</v>
       </c>
       <c r="X14" t="n">
-        <v>856.6503804824162</v>
+        <v>1284.7202594024</v>
       </c>
       <c r="Y14" t="n">
-        <v>856.6503804824162</v>
+        <v>1021.701708012529</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>715.2030656614104</v>
+        <v>323.6331535585359</v>
       </c>
       <c r="C15" t="n">
-        <v>553.4993929023651</v>
+        <v>292.4527848337821</v>
       </c>
       <c r="D15" t="n">
-        <v>414.6607558925772</v>
+        <v>284.1374518582857</v>
       </c>
       <c r="E15" t="n">
         <v>267.6327459494484</v>
@@ -5358,19 +5358,19 @@
         <v>126.102135052085</v>
       </c>
       <c r="K15" t="n">
-        <v>406.4308839238592</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L15" t="n">
-        <v>840.610957857998</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="M15" t="n">
-        <v>840.610957857998</v>
+        <v>798.2172206152195</v>
       </c>
       <c r="N15" t="n">
-        <v>840.610957857998</v>
+        <v>798.2172206152195</v>
       </c>
       <c r="O15" t="n">
-        <v>1244.997107790243</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P15" t="n">
         <v>1607.2118143385</v>
@@ -5385,22 +5385,22 @@
         <v>1658.338344623123</v>
       </c>
       <c r="T15" t="n">
-        <v>1561.676061461759</v>
+        <v>1470.947993587948</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.202402130779</v>
+        <v>1252.474334256968</v>
       </c>
       <c r="V15" t="n">
-        <v>1245.330083613405</v>
+        <v>1024.078711705302</v>
       </c>
       <c r="W15" t="n">
-        <v>1134.537518881006</v>
+        <v>873.4909108124234</v>
       </c>
       <c r="X15" t="n">
-        <v>1067.143834793092</v>
+        <v>675.573922690218</v>
       </c>
       <c r="Y15" t="n">
-        <v>874.6225084426712</v>
+        <v>483.0525963397968</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.3509679716722</v>
+        <v>211.3509679716718</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676439</v>
+        <v>172.2583024676436</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296981</v>
+        <v>149.7097133296978</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253083</v>
+        <v>128.2240031253081</v>
       </c>
       <c r="F16" t="n">
-        <v>106.2666521853769</v>
+        <v>106.2666521853767</v>
       </c>
       <c r="G16" t="n">
-        <v>68.13950988749633</v>
+        <v>68.13950988749622</v>
       </c>
       <c r="H16" t="n">
-        <v>41.68451096813857</v>
+        <v>41.68451096813851</v>
       </c>
       <c r="I16" t="n">
         <v>36.10342522626458</v>
@@ -5437,49 +5437,49 @@
         <v>36.10342522626458</v>
       </c>
       <c r="K16" t="n">
-        <v>228.2989022929499</v>
+        <v>100.3730120089408</v>
       </c>
       <c r="L16" t="n">
-        <v>368.1471347345231</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M16" t="n">
-        <v>527.5149347285411</v>
+        <v>527.5149347285412</v>
       </c>
       <c r="N16" t="n">
-        <v>686.3277821125082</v>
+        <v>743.0901936062147</v>
       </c>
       <c r="O16" t="n">
-        <v>863.1922036467156</v>
+        <v>878.8610094480182</v>
       </c>
       <c r="P16" t="n">
-        <v>1086.009306047124</v>
+        <v>973.7522215644181</v>
       </c>
       <c r="Q16" t="n">
         <v>1086.009306047124</v>
       </c>
       <c r="R16" t="n">
-        <v>1079.119639383895</v>
+        <v>1079.119639383894</v>
       </c>
       <c r="S16" t="n">
-        <v>1000.626385449672</v>
+        <v>1000.626385449671</v>
       </c>
       <c r="T16" t="n">
-        <v>899.1213915813664</v>
+        <v>899.1213915813659</v>
       </c>
       <c r="U16" t="n">
-        <v>742.4691453211202</v>
+        <v>742.4691453211196</v>
       </c>
       <c r="V16" t="n">
-        <v>612.2571449138343</v>
+        <v>612.2571449138337</v>
       </c>
       <c r="W16" t="n">
-        <v>456.6240474655249</v>
+        <v>456.6240474655243</v>
       </c>
       <c r="X16" t="n">
-        <v>355.8948873951921</v>
+        <v>355.8948873951916</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217606</v>
+        <v>264.3830326217602</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.58935043969</v>
+        <v>1011.589350439691</v>
       </c>
       <c r="C17" t="n">
-        <v>851.3864477753423</v>
+        <v>851.3864477753432</v>
       </c>
       <c r="D17" t="n">
-        <v>700.2933390054104</v>
+        <v>700.2933390054112</v>
       </c>
       <c r="E17" t="n">
-        <v>527.2384751143619</v>
+        <v>527.2384751143627</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273769</v>
+        <v>334.8181404273776</v>
       </c>
       <c r="G17" t="n">
         <v>141.0453731662251</v>
@@ -5516,22 +5516,22 @@
         <v>158.0430464355079</v>
       </c>
       <c r="K17" t="n">
-        <v>473.0321469193355</v>
+        <v>473.0321469193354</v>
       </c>
       <c r="L17" t="n">
-        <v>913.7739862102275</v>
+        <v>473.0321469193354</v>
       </c>
       <c r="M17" t="n">
-        <v>1045.619513811627</v>
+        <v>919.8120340943597</v>
       </c>
       <c r="N17" t="n">
-        <v>1492.399400986652</v>
+        <v>930.2787636703691</v>
       </c>
       <c r="O17" t="n">
-        <v>1492.399400986652</v>
+        <v>1334.424833309986</v>
       </c>
       <c r="P17" t="n">
-        <v>1805.171261313229</v>
+        <v>1647.196693636563</v>
       </c>
       <c r="Q17" t="n">
         <v>1805.171261313229</v>
@@ -5546,19 +5546,19 @@
         <v>1805.171261313229</v>
       </c>
       <c r="U17" t="n">
-        <v>1772.064810092612</v>
+        <v>1772.064810092613</v>
       </c>
       <c r="V17" t="n">
-        <v>1656.816391991398</v>
+        <v>1656.8163919914</v>
       </c>
       <c r="W17" t="n">
-        <v>1516.012317851844</v>
+        <v>1516.012317851845</v>
       </c>
       <c r="X17" t="n">
-        <v>1355.713033376182</v>
+        <v>1355.713033376183</v>
       </c>
       <c r="Y17" t="n">
-        <v>1183.902033954864</v>
+        <v>1183.902033954866</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>790.7329880562311</v>
+        <v>457.5075071826819</v>
       </c>
       <c r="C18" t="n">
-        <v>629.0293152971858</v>
+        <v>457.5075071826819</v>
       </c>
       <c r="D18" t="n">
-        <v>490.1906782873979</v>
+        <v>318.6688701728939</v>
       </c>
       <c r="E18" t="n">
-        <v>396.0400232513703</v>
+        <v>318.6688701728939</v>
       </c>
       <c r="F18" t="n">
-        <v>261.3462252012446</v>
+        <v>318.6688701728939</v>
       </c>
       <c r="G18" t="n">
-        <v>132.9389478993228</v>
+        <v>190.2615928709722</v>
       </c>
       <c r="H18" t="n">
-        <v>36.10342522626458</v>
+        <v>93.42607019791399</v>
       </c>
       <c r="I18" t="n">
         <v>36.10342522626458</v>
       </c>
       <c r="J18" t="n">
-        <v>36.10342522626458</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K18" t="n">
-        <v>36.10342522626458</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L18" t="n">
-        <v>351.4373334401951</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="M18" t="n">
-        <v>798.2172206152193</v>
+        <v>996.1766675899487</v>
       </c>
       <c r="N18" t="n">
-        <v>798.2172206152193</v>
+        <v>996.1766675899487</v>
       </c>
       <c r="O18" t="n">
-        <v>1244.997107790243</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="P18" t="n">
-        <v>1607.2118143385</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q18" t="n">
         <v>1805.171261313229</v>
       </c>
       <c r="R18" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S18" t="n">
-        <v>1805.171261313229</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="T18" t="n">
-        <v>1617.780910278053</v>
+        <v>1577.940624637818</v>
       </c>
       <c r="U18" t="n">
-        <v>1617.780910278053</v>
+        <v>1359.466965306839</v>
       </c>
       <c r="V18" t="n">
-        <v>1389.385287726387</v>
+        <v>1131.071342755173</v>
       </c>
       <c r="W18" t="n">
-        <v>1148.069418959697</v>
+        <v>889.7554739884825</v>
       </c>
       <c r="X18" t="n">
-        <v>950.152430837492</v>
+        <v>691.8384858662771</v>
       </c>
       <c r="Y18" t="n">
-        <v>950.152430837492</v>
+        <v>499.3171595158559</v>
       </c>
     </row>
     <row r="19">
@@ -5677,7 +5677,7 @@
         <v>100.3730120089408</v>
       </c>
       <c r="L19" t="n">
-        <v>240.2212444505141</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M19" t="n">
         <v>399.5890444445321</v>
@@ -5686,31 +5686,31 @@
         <v>558.4018918284992</v>
       </c>
       <c r="O19" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703027</v>
       </c>
       <c r="P19" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="Q19" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="R19" t="n">
-        <v>651.6509490891817</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="S19" t="n">
-        <v>651.6509490891817</v>
+        <v>580.0473618181882</v>
       </c>
       <c r="T19" t="n">
-        <v>641.3535071894293</v>
+        <v>569.7499199184357</v>
       </c>
       <c r="U19" t="n">
-        <v>371.0901860542562</v>
+        <v>282.574369623898</v>
       </c>
       <c r="V19" t="n">
-        <v>332.0857376155234</v>
+        <v>110.3548816126788</v>
       </c>
       <c r="W19" t="n">
-        <v>267.6601921357671</v>
+        <v>45.9293361329225</v>
       </c>
       <c r="X19" t="n">
         <v>36.40772803114288</v>
@@ -5729,16 +5729,16 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3864477753427</v>
+        <v>851.3864477753425</v>
       </c>
       <c r="D20" t="n">
-        <v>700.293339005411</v>
+        <v>700.2933390054106</v>
       </c>
       <c r="E20" t="n">
-        <v>527.2384751143625</v>
+        <v>527.238475114362</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8181404273774</v>
+        <v>334.8181404273772</v>
       </c>
       <c r="G20" t="n">
         <v>141.0453731662251</v>
@@ -5753,19 +5753,19 @@
         <v>36.10342522626458</v>
       </c>
       <c r="K20" t="n">
-        <v>66.72357803267209</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="L20" t="n">
-        <v>507.4654173235641</v>
+        <v>194.6935569969869</v>
       </c>
       <c r="M20" t="n">
-        <v>954.2453044985882</v>
+        <v>641.4734441720111</v>
       </c>
       <c r="N20" t="n">
-        <v>1401.025191673612</v>
+        <v>1088.253331347035</v>
       </c>
       <c r="O20" t="n">
-        <v>1805.171261313229</v>
+        <v>1492.399400986652</v>
       </c>
       <c r="P20" t="n">
         <v>1805.171261313229</v>
@@ -5792,7 +5792,7 @@
         <v>1516.012317851845</v>
       </c>
       <c r="X20" t="n">
-        <v>1355.713033376183</v>
+        <v>1355.713033376182</v>
       </c>
       <c r="Y20" t="n">
         <v>1183.902033954865</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>368.8613574429646</v>
+        <v>441.6706306014968</v>
       </c>
       <c r="C21" t="n">
-        <v>368.8613574429646</v>
+        <v>279.9669578424515</v>
       </c>
       <c r="D21" t="n">
-        <v>368.8613574429646</v>
+        <v>279.9669578424515</v>
       </c>
       <c r="E21" t="n">
-        <v>221.8333474998358</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="F21" t="n">
-        <v>221.8333474998358</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="G21" t="n">
-        <v>93.42607019791399</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="H21" t="n">
-        <v>93.42607019791399</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I21" t="n">
         <v>36.10342522626458</v>
@@ -5832,22 +5832,22 @@
         <v>126.102135052085</v>
       </c>
       <c r="K21" t="n">
-        <v>406.4308839238592</v>
+        <v>351.4373334401953</v>
       </c>
       <c r="L21" t="n">
-        <v>464.8315997881564</v>
+        <v>351.4373334401953</v>
       </c>
       <c r="M21" t="n">
-        <v>911.6114869631806</v>
+        <v>798.2172206152195</v>
       </c>
       <c r="N21" t="n">
-        <v>1358.391374138205</v>
+        <v>798.2172206152195</v>
       </c>
       <c r="O21" t="n">
-        <v>1805.171261313229</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="P21" t="n">
-        <v>1805.171261313229</v>
+        <v>1607.2118143385</v>
       </c>
       <c r="Q21" t="n">
         <v>1805.171261313229</v>
@@ -5862,19 +5862,19 @@
         <v>1431.107707947712</v>
       </c>
       <c r="U21" t="n">
-        <v>1212.634048616732</v>
+        <v>1212.634048616733</v>
       </c>
       <c r="V21" t="n">
-        <v>984.2384260650663</v>
+        <v>984.2384260650665</v>
       </c>
       <c r="W21" t="n">
-        <v>742.9225572983763</v>
+        <v>742.9225572983765</v>
       </c>
       <c r="X21" t="n">
-        <v>720.8021265746466</v>
+        <v>545.0055691761711</v>
       </c>
       <c r="Y21" t="n">
-        <v>528.2808002242255</v>
+        <v>441.6706306014968</v>
       </c>
     </row>
     <row r="22">
@@ -5914,7 +5914,7 @@
         <v>100.3730120089408</v>
       </c>
       <c r="L22" t="n">
-        <v>240.2212444505141</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M22" t="n">
         <v>399.5890444445321</v>
@@ -5923,28 +5923,28 @@
         <v>558.4018918284992</v>
       </c>
       <c r="O22" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703027</v>
       </c>
       <c r="P22" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="Q22" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="R22" t="n">
-        <v>789.0639197867026</v>
+        <v>651.6509490891816</v>
       </c>
       <c r="S22" t="n">
-        <v>580.0473618181883</v>
+        <v>442.6343911206673</v>
       </c>
       <c r="T22" t="n">
-        <v>348.0190639155912</v>
+        <v>432.3369492209148</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5743696238982</v>
+        <v>366.8922549292217</v>
       </c>
       <c r="V22" t="n">
-        <v>243.5699211851654</v>
+        <v>110.3548816126788</v>
       </c>
       <c r="W22" t="n">
         <v>45.9293361329225</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1011.58935043969</v>
+        <v>1011.589350439691</v>
       </c>
       <c r="C23" t="n">
-        <v>851.3864477753423</v>
+        <v>851.3864477753432</v>
       </c>
       <c r="D23" t="n">
-        <v>700.2933390054109</v>
+        <v>700.2933390054113</v>
       </c>
       <c r="E23" t="n">
-        <v>527.2384751143624</v>
+        <v>527.2384751143628</v>
       </c>
       <c r="F23" t="n">
-        <v>334.8181404273774</v>
+        <v>334.8181404273777</v>
       </c>
       <c r="G23" t="n">
-        <v>141.045373166225</v>
+        <v>141.0453731662251</v>
       </c>
       <c r="H23" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I23" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J23" t="n">
-        <v>158.0430464355079</v>
+        <v>66.72357803267255</v>
       </c>
       <c r="K23" t="n">
-        <v>473.0321469193354</v>
+        <v>66.72357803267255</v>
       </c>
       <c r="L23" t="n">
-        <v>913.7739862102273</v>
+        <v>507.4654173235645</v>
       </c>
       <c r="M23" t="n">
-        <v>913.7739862102273</v>
+        <v>954.2453044985887</v>
       </c>
       <c r="N23" t="n">
-        <v>930.278763670368</v>
+        <v>1401.025191673613</v>
       </c>
       <c r="O23" t="n">
-        <v>1334.424833309984</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="P23" t="n">
-        <v>1647.196693636562</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T23" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="U23" t="n">
-        <v>1772.064810092612</v>
+        <v>1772.064810092614</v>
       </c>
       <c r="V23" t="n">
-        <v>1656.816391991398</v>
+        <v>1656.8163919914</v>
       </c>
       <c r="W23" t="n">
-        <v>1516.012317851844</v>
+        <v>1516.012317851845</v>
       </c>
       <c r="X23" t="n">
-        <v>1355.713033376182</v>
+        <v>1355.713033376183</v>
       </c>
       <c r="Y23" t="n">
-        <v>1183.902033954865</v>
+        <v>1183.902033954866</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>746.774820290274</v>
+        <v>352.4842428257499</v>
       </c>
       <c r="C24" t="n">
-        <v>585.0711475312287</v>
+        <v>352.4842428257499</v>
       </c>
       <c r="D24" t="n">
-        <v>446.2325105214408</v>
+        <v>213.645605815962</v>
       </c>
       <c r="E24" t="n">
-        <v>299.204500578312</v>
+        <v>66.61759587283319</v>
       </c>
       <c r="F24" t="n">
-        <v>164.5107025281864</v>
+        <v>66.61759587283319</v>
       </c>
       <c r="G24" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H24" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I24" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J24" t="n">
-        <v>126.102135052085</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K24" t="n">
-        <v>126.102135052085</v>
+        <v>102.6168932399003</v>
       </c>
       <c r="L24" t="n">
-        <v>351.4373334401947</v>
+        <v>102.6168932399003</v>
       </c>
       <c r="M24" t="n">
-        <v>351.4373334401947</v>
+        <v>549.3967804149245</v>
       </c>
       <c r="N24" t="n">
-        <v>798.2172206152186</v>
+        <v>996.1766675899487</v>
       </c>
       <c r="O24" t="n">
-        <v>1244.997107790243</v>
+        <v>1442.956554764973</v>
       </c>
       <c r="P24" t="n">
-        <v>1607.211814338499</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q24" t="n">
-        <v>1805.171261313228</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.330975672993</v>
+        <v>1765.330975672994</v>
       </c>
       <c r="S24" t="n">
-        <v>1618.498058982887</v>
+        <v>1618.498058982888</v>
       </c>
       <c r="T24" t="n">
-        <v>1618.498058982887</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="U24" t="n">
-        <v>1618.498058982887</v>
+        <v>1212.634048616733</v>
       </c>
       <c r="V24" t="n">
-        <v>1390.102436431221</v>
+        <v>984.2384260650665</v>
       </c>
       <c r="W24" t="n">
-        <v>1148.786567664531</v>
+        <v>742.9225572983765</v>
       </c>
       <c r="X24" t="n">
-        <v>950.8695795423251</v>
+        <v>545.0055691761711</v>
       </c>
       <c r="Y24" t="n">
-        <v>906.1942630715348</v>
+        <v>352.4842428257499</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.6041667644211</v>
+        <v>240.9220520697445</v>
       </c>
       <c r="C25" t="n">
-        <v>36.10342522626456</v>
+        <v>240.9220520697445</v>
       </c>
       <c r="D25" t="n">
-        <v>36.10342522626456</v>
+        <v>188.1124394649458</v>
       </c>
       <c r="E25" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="F25" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="G25" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H25" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I25" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J25" t="n">
-        <v>36.10342522626456</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K25" t="n">
         <v>100.3730120089408</v>
       </c>
       <c r="L25" t="n">
-        <v>240.2212444505141</v>
+        <v>240.221244450514</v>
       </c>
       <c r="M25" t="n">
         <v>399.5890444445321</v>
@@ -6160,37 +6160,37 @@
         <v>558.4018918284992</v>
       </c>
       <c r="O25" t="n">
-        <v>694.1727076703028</v>
+        <v>694.1727076703027</v>
       </c>
       <c r="P25" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="Q25" t="n">
-        <v>789.0639197867026</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="R25" t="n">
-        <v>789.0639197867026</v>
+        <v>651.6509490891816</v>
       </c>
       <c r="S25" t="n">
-        <v>789.0639197867026</v>
+        <v>651.6509490891816</v>
       </c>
       <c r="T25" t="n">
-        <v>557.0356218841056</v>
+        <v>419.6226511865846</v>
       </c>
       <c r="U25" t="n">
-        <v>491.5909275924126</v>
+        <v>354.1779568948915</v>
       </c>
       <c r="V25" t="n">
-        <v>230.8556231508352</v>
+        <v>315.1735084561587</v>
       </c>
       <c r="W25" t="n">
-        <v>166.4300776710789</v>
+        <v>250.7479629764024</v>
       </c>
       <c r="X25" t="n">
-        <v>156.9084695692994</v>
+        <v>241.2263548746228</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.6041667644211</v>
+        <v>240.9220520697445</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1258.988776837336</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063952</v>
+        <v>966.598462006395</v>
       </c>
       <c r="F26" t="n">
-        <v>654.8426763795173</v>
+        <v>654.8426763795172</v>
       </c>
       <c r="G26" t="n">
-        <v>341.734458178472</v>
+        <v>341.7344581784719</v>
       </c>
       <c r="H26" t="n">
         <v>117.4570592986184</v>
@@ -6227,22 +6227,22 @@
         <v>292.478128703973</v>
       </c>
       <c r="K26" t="n">
-        <v>607.4672291878006</v>
+        <v>707.8249656899995</v>
       </c>
       <c r="L26" t="n">
-        <v>1148.566804980892</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M26" t="n">
-        <v>1745.48441791589</v>
+        <v>1801.263694742704</v>
       </c>
       <c r="N26" t="n">
-        <v>2329.1660603947</v>
+        <v>2384.945337221515</v>
       </c>
       <c r="O26" t="n">
-        <v>2833.669866536516</v>
+        <v>2889.44914336333</v>
       </c>
       <c r="P26" t="n">
-        <v>3246.799463365292</v>
+        <v>3202.221003689908</v>
       </c>
       <c r="Q26" t="n">
         <v>3460.553307868773</v>
@@ -6303,25 +6303,25 @@
         <v>70.1807709925306</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1794808183511</v>
+        <v>70.1807709925306</v>
       </c>
       <c r="K27" t="n">
-        <v>160.1794808183511</v>
+        <v>350.5095198643047</v>
       </c>
       <c r="L27" t="n">
-        <v>594.3595547524899</v>
+        <v>784.6895937984434</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.16373698098</v>
+        <v>926.688771774559</v>
       </c>
       <c r="N27" t="n">
-        <v>1752.311508293028</v>
+        <v>1519.836543086607</v>
       </c>
       <c r="O27" t="n">
-        <v>2184.902088421732</v>
+        <v>1986.942641447002</v>
       </c>
       <c r="P27" t="n">
-        <v>2547.116794969988</v>
+        <v>2349.157347995259</v>
       </c>
       <c r="Q27" t="n">
         <v>2547.116794969988</v>
@@ -6385,19 +6385,19 @@
         <v>130.3371910802957</v>
       </c>
       <c r="K28" t="n">
-        <v>294.964514365171</v>
+        <v>294.9645143651711</v>
       </c>
       <c r="L28" t="n">
-        <v>535.1704833089433</v>
+        <v>535.1704833089434</v>
       </c>
       <c r="M28" t="n">
-        <v>794.8960198051604</v>
+        <v>794.8960198051606</v>
       </c>
       <c r="N28" t="n">
         <v>1054.066603691327</v>
       </c>
       <c r="O28" t="n">
-        <v>1290.195156035329</v>
+        <v>1290.19515603533</v>
       </c>
       <c r="P28" t="n">
         <v>1485.444104653928</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1808.955690151402</v>
+        <v>1808.9556901514</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.417336547161</v>
+        <v>1529.417336547159</v>
       </c>
       <c r="D29" t="n">
-        <v>1258.988776837336</v>
+        <v>1258.988776837335</v>
       </c>
       <c r="E29" t="n">
-        <v>966.598462006395</v>
+        <v>966.5984620063937</v>
       </c>
       <c r="F29" t="n">
-        <v>654.8426763795172</v>
+        <v>654.8426763795164</v>
       </c>
       <c r="G29" t="n">
-        <v>341.7344581784719</v>
+        <v>341.7344581784711</v>
       </c>
       <c r="H29" t="n">
         <v>117.4570592986184</v>
       </c>
       <c r="I29" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J29" t="n">
-        <v>192.1203922017739</v>
+        <v>292.478128703973</v>
       </c>
       <c r="K29" t="n">
-        <v>607.4672291878006</v>
+        <v>611.3740112701711</v>
       </c>
       <c r="L29" t="n">
-        <v>1148.566804980892</v>
+        <v>1152.473587063262</v>
       </c>
       <c r="M29" t="n">
-        <v>1745.48441791589</v>
+        <v>1749.39119999826</v>
       </c>
       <c r="N29" t="n">
-        <v>2284.587600719316</v>
+        <v>2333.072842477071</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.091406861131</v>
+        <v>2837.576648618886</v>
       </c>
       <c r="P29" t="n">
-        <v>3202.221003689908</v>
+        <v>3250.706245447663</v>
       </c>
       <c r="Q29" t="n">
-        <v>3460.553307868773</v>
+        <v>3509.038549626528</v>
       </c>
       <c r="R29" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626528</v>
       </c>
       <c r="S29" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604188</v>
       </c>
       <c r="T29" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664295</v>
       </c>
       <c r="U29" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503786</v>
       </c>
       <c r="V29" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.52453546268</v>
       </c>
       <c r="W29" t="n">
-        <v>2671.385010383234</v>
+        <v>2671.385010383232</v>
       </c>
       <c r="X29" t="n">
-        <v>2391.75027496768</v>
+        <v>2391.750274967678</v>
       </c>
       <c r="Y29" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.603824606468</v>
       </c>
     </row>
     <row r="30">
@@ -6528,25 +6528,25 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F30" t="n">
-        <v>352.74621593916</v>
+        <v>352.7462159391599</v>
       </c>
       <c r="G30" t="n">
-        <v>224.3389386372382</v>
+        <v>224.3389386372381</v>
       </c>
       <c r="H30" t="n">
         <v>127.50341596418</v>
       </c>
       <c r="I30" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J30" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="K30" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="L30" t="n">
-        <v>504.3608449266694</v>
+        <v>504.3608449266693</v>
       </c>
       <c r="M30" t="n">
         <v>1069.165027155159</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>442.3236065373147</v>
+        <v>442.3236065373152</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1030420619469</v>
+        <v>375.1030420619473</v>
       </c>
       <c r="D31" t="n">
-        <v>324.4265539526615</v>
+        <v>324.4265539526619</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8129447769322</v>
+        <v>274.8129447769327</v>
       </c>
       <c r="F31" t="n">
-        <v>224.7276948656611</v>
+        <v>224.7276948656616</v>
       </c>
       <c r="G31" t="n">
-        <v>158.472653596441</v>
+        <v>158.4726535964415</v>
       </c>
       <c r="H31" t="n">
-        <v>103.8897557057439</v>
+        <v>103.8897557057441</v>
       </c>
       <c r="I31" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J31" t="n">
         <v>130.3371910802957</v>
@@ -6628,10 +6628,10 @@
         <v>535.1704833089434</v>
       </c>
       <c r="M31" t="n">
-        <v>794.8960198051604</v>
+        <v>794.8960198051602</v>
       </c>
       <c r="N31" t="n">
-        <v>1054.066603691327</v>
+        <v>1054.066603691326</v>
       </c>
       <c r="O31" t="n">
         <v>1290.195156035329</v>
@@ -6640,10 +6640,10 @@
         <v>1485.444104653928</v>
       </c>
       <c r="Q31" t="n">
-        <v>1570.133035354823</v>
+        <v>1570.133035354824</v>
       </c>
       <c r="R31" t="n">
-        <v>1535.115469720254</v>
+        <v>1535.115469720255</v>
       </c>
       <c r="S31" t="n">
         <v>1428.494316814692</v>
@@ -6652,19 +6652,19 @@
         <v>1298.861423975047</v>
       </c>
       <c r="U31" t="n">
-        <v>1114.081278743461</v>
+        <v>1114.081278743462</v>
       </c>
       <c r="V31" t="n">
-        <v>955.7413793648353</v>
+        <v>955.7413793648359</v>
       </c>
       <c r="W31" t="n">
-        <v>771.9803829451863</v>
+        <v>771.9803829451869</v>
       </c>
       <c r="X31" t="n">
-        <v>643.1233239035139</v>
+        <v>643.1233239035146</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.4835701587427</v>
+        <v>523.4835701587432</v>
       </c>
     </row>
     <row r="32">
@@ -6686,64 +6686,64 @@
         <v>966.5984620063946</v>
       </c>
       <c r="F32" t="n">
-        <v>654.8426763795169</v>
+        <v>654.8426763795167</v>
       </c>
       <c r="G32" t="n">
-        <v>341.7344581784715</v>
+        <v>341.7344581784714</v>
       </c>
       <c r="H32" t="n">
-        <v>117.4570592986185</v>
+        <v>117.4570592986183</v>
       </c>
       <c r="I32" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J32" t="n">
-        <v>292.478128703973</v>
+        <v>292.4781287039731</v>
       </c>
       <c r="K32" t="n">
-        <v>707.8249656899995</v>
+        <v>707.8249656899999</v>
       </c>
       <c r="L32" t="n">
-        <v>1152.473587063264</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M32" t="n">
-        <v>1749.391199998262</v>
+        <v>1745.48441791589</v>
       </c>
       <c r="N32" t="n">
-        <v>2333.072842477073</v>
+        <v>2329.166060394701</v>
       </c>
       <c r="O32" t="n">
-        <v>2837.576648618888</v>
+        <v>2833.669866536517</v>
       </c>
       <c r="P32" t="n">
-        <v>3250.706245447665</v>
+        <v>3246.799463365293</v>
       </c>
       <c r="Q32" t="n">
-        <v>3509.03854962653</v>
+        <v>3460.553307868771</v>
       </c>
       <c r="R32" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626528</v>
       </c>
       <c r="S32" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604188</v>
       </c>
       <c r="T32" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664295</v>
       </c>
       <c r="U32" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503787</v>
       </c>
       <c r="V32" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.52453546268</v>
       </c>
       <c r="W32" t="n">
-        <v>2671.385010383234</v>
+        <v>2671.385010383233</v>
       </c>
       <c r="X32" t="n">
-        <v>2391.750274967679</v>
+        <v>2391.750274967678</v>
       </c>
       <c r="Y32" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.603824606468</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F33" t="n">
-        <v>352.74621593916</v>
+        <v>352.7462159391599</v>
       </c>
       <c r="G33" t="n">
-        <v>224.3389386372382</v>
+        <v>224.3389386372381</v>
       </c>
       <c r="H33" t="n">
         <v>127.50341596418</v>
       </c>
       <c r="I33" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J33" t="n">
-        <v>160.179480818351</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="K33" t="n">
-        <v>440.5082296901252</v>
+        <v>350.5095198643047</v>
       </c>
       <c r="L33" t="n">
-        <v>874.6883036242639</v>
+        <v>784.6895937984434</v>
       </c>
       <c r="M33" t="n">
-        <v>1439.492485852753</v>
+        <v>1349.493776026933</v>
       </c>
       <c r="N33" t="n">
-        <v>1519.836543086607</v>
+        <v>1942.641547338981</v>
       </c>
       <c r="O33" t="n">
-        <v>1986.942641447002</v>
+        <v>2184.902088421732</v>
       </c>
       <c r="P33" t="n">
-        <v>2349.157347995259</v>
+        <v>2547.116794969988</v>
       </c>
       <c r="Q33" t="n">
         <v>2547.116794969988</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.3236065373158</v>
+        <v>442.3236065373145</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619478</v>
+        <v>375.1030420619467</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526623</v>
+        <v>324.4265539526614</v>
       </c>
       <c r="E34" t="n">
-        <v>274.812944776933</v>
+        <v>274.8129447769322</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656619</v>
+        <v>224.7276948656613</v>
       </c>
       <c r="G34" t="n">
-        <v>158.4726535964416</v>
+        <v>158.4726535964413</v>
       </c>
       <c r="H34" t="n">
-        <v>103.8897557057442</v>
+        <v>103.889755705744</v>
       </c>
       <c r="I34" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253057</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3371910802957</v>
+        <v>130.3371910802958</v>
       </c>
       <c r="K34" t="n">
-        <v>294.964514365171</v>
+        <v>294.9645143651713</v>
       </c>
       <c r="L34" t="n">
-        <v>535.1704833089433</v>
+        <v>535.170483308941</v>
       </c>
       <c r="M34" t="n">
-        <v>794.8960198051604</v>
+        <v>794.8960198051583</v>
       </c>
       <c r="N34" t="n">
-        <v>1054.066603691328</v>
+        <v>1054.066603691325</v>
       </c>
       <c r="O34" t="n">
-        <v>1290.19515603533</v>
+        <v>1290.195156035327</v>
       </c>
       <c r="P34" t="n">
-        <v>1485.444104653929</v>
+        <v>1485.444104653926</v>
       </c>
       <c r="Q34" t="n">
-        <v>1570.133035354825</v>
+        <v>1570.133035354822</v>
       </c>
       <c r="R34" t="n">
-        <v>1535.115469720256</v>
+        <v>1535.115469720253</v>
       </c>
       <c r="S34" t="n">
-        <v>1428.494316814693</v>
+        <v>1428.494316814691</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.861423975048</v>
+        <v>1298.861423975046</v>
       </c>
       <c r="U34" t="n">
-        <v>1114.081278743462</v>
+        <v>1114.08127874346</v>
       </c>
       <c r="V34" t="n">
-        <v>955.7413793648365</v>
+        <v>955.7413793648345</v>
       </c>
       <c r="W34" t="n">
-        <v>771.9803829451873</v>
+        <v>771.9803829451856</v>
       </c>
       <c r="X34" t="n">
-        <v>643.1233239035149</v>
+        <v>643.1233239035133</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.4835701587438</v>
+        <v>523.4835701587424</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4893359842935</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K35" t="n">
-        <v>231.9676194093453</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L35" t="n">
-        <v>672.7094587002373</v>
+        <v>806.2806545497697</v>
       </c>
       <c r="M35" t="n">
-        <v>1169.269335133036</v>
+        <v>1302.840530982569</v>
       </c>
       <c r="N35" t="n">
-        <v>1652.593241109648</v>
+        <v>1786.16443695918</v>
       </c>
       <c r="O35" t="n">
         <v>2056.739310749264</v>
@@ -6962,7 +6962,7 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S35" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T35" t="n">
         <v>2467.66113384034</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.3792774837672</v>
+        <v>915.3792774837674</v>
       </c>
       <c r="C36" t="n">
-        <v>753.6756047247219</v>
+        <v>753.6756047247222</v>
       </c>
       <c r="D36" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149344</v>
       </c>
       <c r="E36" t="n">
-        <v>467.8089577718052</v>
+        <v>467.8089577718056</v>
       </c>
       <c r="F36" t="n">
-        <v>333.1151597216796</v>
+        <v>333.1151597216798</v>
       </c>
       <c r="G36" t="n">
         <v>204.7078824197577</v>
       </c>
       <c r="H36" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597466995</v>
       </c>
       <c r="I36" t="n">
         <v>50.54971477505016</v>
       </c>
       <c r="J36" t="n">
-        <v>140.5484246008706</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K36" t="n">
-        <v>420.8771734726448</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="L36" t="n">
-        <v>855.0572474067835</v>
+        <v>342.2535333285891</v>
       </c>
       <c r="M36" t="n">
-        <v>907.0577155570788</v>
+        <v>907.0577155570786</v>
       </c>
       <c r="N36" t="n">
         <v>1500.205486869127</v>
@@ -7032,13 +7032,13 @@
         <v>1967.311585229522</v>
       </c>
       <c r="P36" t="n">
-        <v>2329.526291777779</v>
+        <v>2329.526291777778</v>
       </c>
       <c r="Q36" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R36" t="n">
-        <v>2487.645453112273</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S36" t="n">
         <v>2340.812536422166</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.36168246957342</v>
+        <v>53.36168246957335</v>
       </c>
       <c r="C37" t="n">
-        <v>51.47293701923794</v>
+        <v>51.4729370192379</v>
       </c>
       <c r="D37" t="n">
-        <v>51.47293701923794</v>
+        <v>51.4729370192379</v>
       </c>
       <c r="E37" t="n">
-        <v>51.47293701923794</v>
+        <v>51.4729370192379</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47293701923794</v>
+        <v>51.4729370192379</v>
       </c>
       <c r="G37" t="n">
         <v>50.54971477505016</v>
@@ -7102,43 +7102,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M37" t="n">
-        <v>414.0353339933177</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N37" t="n">
-        <v>572.8481813772848</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O37" t="n">
-        <v>708.6189972190884</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P37" t="n">
-        <v>803.5102093354883</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q37" t="n">
-        <v>803.5102093354883</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R37" t="n">
-        <v>803.5102093354883</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S37" t="n">
-        <v>762.2208754549582</v>
+        <v>762.220875454958</v>
       </c>
       <c r="T37" t="n">
-        <v>697.9198016403454</v>
+        <v>685.6358098450951</v>
       </c>
       <c r="U37" t="n">
-        <v>578.471475433792</v>
+        <v>566.1874836385416</v>
       </c>
       <c r="V37" t="n">
-        <v>473.1794032849485</v>
+        <v>473.1794032849484</v>
       </c>
       <c r="W37" t="n">
-        <v>187.0230018023477</v>
+        <v>354.7502258903318</v>
       </c>
       <c r="X37" t="n">
-        <v>123.4977617857077</v>
+        <v>291.2249858736918</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.18982706596901</v>
+        <v>69.18982706596891</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>457.2716938058843</v>
       </c>
       <c r="G38" t="n">
-        <v>209.4952946298711</v>
+        <v>209.495294629871</v>
       </c>
       <c r="H38" t="n">
         <v>50.54971477505016</v>
@@ -7172,22 +7172,22 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J38" t="n">
-        <v>172.4893359842935</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K38" t="n">
-        <v>487.4784364681211</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L38" t="n">
-        <v>928.220275759013</v>
+        <v>806.2806545497697</v>
       </c>
       <c r="M38" t="n">
-        <v>1424.780152191812</v>
+        <v>1302.840530982569</v>
       </c>
       <c r="N38" t="n">
-        <v>1908.104058168423</v>
+        <v>1786.16443695918</v>
       </c>
       <c r="O38" t="n">
-        <v>2312.25012780804</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P38" t="n">
         <v>2369.511171075842</v>
@@ -7205,13 +7205,13 @@
         <v>2467.66113384034</v>
       </c>
       <c r="U38" t="n">
-        <v>2380.551050704864</v>
+        <v>2380.551050704863</v>
       </c>
       <c r="V38" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W38" t="n">
-        <v>2016.491294634375</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X38" t="n">
         <v>1802.188378243852</v>
@@ -7254,19 +7254,19 @@
         <v>140.5484246008706</v>
       </c>
       <c r="K39" t="n">
-        <v>420.8771734726448</v>
+        <v>420.8771734726447</v>
       </c>
       <c r="L39" t="n">
-        <v>420.8771734726448</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M39" t="n">
-        <v>985.6813557011344</v>
+        <v>1419.861429635273</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.829127013183</v>
+        <v>1500.205486869128</v>
       </c>
       <c r="O39" t="n">
-        <v>2045.935225373578</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P39" t="n">
         <v>2329.526291777779</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.64567426482301</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C40" t="n">
-        <v>63.75692881448745</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D40" t="n">
-        <v>51.47293701923803</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E40" t="n">
-        <v>51.47293701923803</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F40" t="n">
-        <v>51.47293701923803</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="G40" t="n">
         <v>50.54971477505016</v>
@@ -7339,43 +7339,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M40" t="n">
-        <v>414.0353339933177</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N40" t="n">
-        <v>572.8481813772848</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O40" t="n">
-        <v>708.6189972190884</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P40" t="n">
-        <v>803.5102093354883</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q40" t="n">
-        <v>803.5102093354883</v>
+        <v>787.5232633082425</v>
       </c>
       <c r="R40" t="n">
-        <v>803.5102093354883</v>
+        <v>787.5232633082425</v>
       </c>
       <c r="S40" t="n">
-        <v>762.2208754549581</v>
+        <v>746.2339294277124</v>
       </c>
       <c r="T40" t="n">
-        <v>530.1925775523611</v>
+        <v>517.908585757111</v>
       </c>
       <c r="U40" t="n">
-        <v>410.7442513458075</v>
+        <v>398.4602595505576</v>
       </c>
       <c r="V40" t="n">
-        <v>317.7361709922143</v>
+        <v>305.4521791969644</v>
       </c>
       <c r="W40" t="n">
-        <v>199.3069935975975</v>
+        <v>187.0230018023477</v>
       </c>
       <c r="X40" t="n">
-        <v>135.7817535809575</v>
+        <v>123.4977617857077</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.47381886121869</v>
+        <v>69.18982706596901</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1350.05743147764</v>
       </c>
       <c r="C41" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.850896898432</v>
       </c>
       <c r="D41" t="n">
         <v>930.7541562136391</v>
       </c>
       <c r="E41" t="n">
-        <v>703.6956604077303</v>
+        <v>703.6956604077302</v>
       </c>
       <c r="F41" t="n">
-        <v>457.271693805885</v>
+        <v>457.2716938058848</v>
       </c>
       <c r="G41" t="n">
         <v>209.495294629871</v>
@@ -7412,10 +7412,10 @@
         <v>172.4893359842935</v>
       </c>
       <c r="K41" t="n">
-        <v>487.4784364681211</v>
+        <v>231.9676194093454</v>
       </c>
       <c r="L41" t="n">
-        <v>928.220275759013</v>
+        <v>672.7094587002373</v>
       </c>
       <c r="M41" t="n">
         <v>1169.269335133036</v>
@@ -7436,7 +7436,7 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S41" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T41" t="n">
         <v>2467.66113384034</v>
@@ -7445,13 +7445,13 @@
         <v>2380.551050704864</v>
       </c>
       <c r="V41" t="n">
-        <v>2211.299000688789</v>
+        <v>2211.29900068879</v>
       </c>
       <c r="W41" t="n">
         <v>2016.491294634375</v>
       </c>
       <c r="X41" t="n">
-        <v>1802.188378243852</v>
+        <v>1802.188378243853</v>
       </c>
       <c r="Y41" t="n">
         <v>1576.373746907675</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.3792774837672</v>
+        <v>915.3792774837677</v>
       </c>
       <c r="C42" t="n">
-        <v>753.6756047247219</v>
+        <v>753.6756047247225</v>
       </c>
       <c r="D42" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149345</v>
       </c>
       <c r="E42" t="n">
-        <v>467.8089577718052</v>
+        <v>467.8089577718058</v>
       </c>
       <c r="F42" t="n">
-        <v>333.1151597216796</v>
+        <v>333.1151597216801</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7078824197577</v>
+        <v>204.7078824197583</v>
       </c>
       <c r="H42" t="n">
-        <v>107.8723597466996</v>
+        <v>107.8723597467002</v>
       </c>
       <c r="I42" t="n">
         <v>50.54971477505016</v>
@@ -7491,34 +7491,34 @@
         <v>140.5484246008706</v>
       </c>
       <c r="K42" t="n">
-        <v>420.8771734726448</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="L42" t="n">
-        <v>420.8771734726448</v>
+        <v>574.7284985350093</v>
       </c>
       <c r="M42" t="n">
-        <v>985.6813557011344</v>
+        <v>1139.532680763499</v>
       </c>
       <c r="N42" t="n">
-        <v>1500.205486869127</v>
+        <v>1732.680452075547</v>
       </c>
       <c r="O42" t="n">
         <v>1967.311585229522</v>
       </c>
       <c r="P42" t="n">
-        <v>2329.526291777778</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q42" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R42" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112273</v>
       </c>
       <c r="S42" t="n">
         <v>2340.812536422166</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386991</v>
       </c>
       <c r="U42" t="n">
         <v>1934.948526056011</v>
@@ -7530,10 +7530,10 @@
         <v>1465.237034737655</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.320046615449</v>
+        <v>1267.32004661545</v>
       </c>
       <c r="Y42" t="n">
-        <v>1074.798720265028</v>
+        <v>1074.798720265029</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.3616824695733</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="G43" t="n">
         <v>50.54971477505016</v>
@@ -7576,43 +7576,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M43" t="n">
-        <v>414.0353339933177</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N43" t="n">
-        <v>572.8481813772848</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O43" t="n">
-        <v>708.6189972190884</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P43" t="n">
-        <v>803.5102093354883</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q43" t="n">
-        <v>803.5102093354883</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R43" t="n">
-        <v>791.2262175402376</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S43" t="n">
-        <v>749.9368836597075</v>
+        <v>762.220875454958</v>
       </c>
       <c r="T43" t="n">
-        <v>685.6358098450947</v>
+        <v>685.6358098450953</v>
       </c>
       <c r="U43" t="n">
-        <v>566.1874836385414</v>
+        <v>398.4602595505576</v>
       </c>
       <c r="V43" t="n">
-        <v>473.1794032849483</v>
+        <v>305.4521791969644</v>
       </c>
       <c r="W43" t="n">
-        <v>187.0230018023474</v>
+        <v>187.0230018023477</v>
       </c>
       <c r="X43" t="n">
-        <v>123.4977617857075</v>
+        <v>123.4977617857077</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.18982706596884</v>
+        <v>69.18982706596901</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477639</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.850896898432</v>
+        <v>1135.85089689843</v>
       </c>
       <c r="D44" t="n">
-        <v>930.7541562136398</v>
+        <v>930.754156213638</v>
       </c>
       <c r="E44" t="n">
-        <v>703.6956604077308</v>
+        <v>703.6956604077291</v>
       </c>
       <c r="F44" t="n">
-        <v>457.2716938058852</v>
+        <v>457.2716938058836</v>
       </c>
       <c r="G44" t="n">
-        <v>209.495294629871</v>
+        <v>209.4952946298701</v>
       </c>
       <c r="H44" t="n">
         <v>50.54971477505016</v>
@@ -7646,25 +7646,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J44" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K44" t="n">
-        <v>365.5388152588778</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L44" t="n">
-        <v>806.2806545497697</v>
+        <v>928.220275759013</v>
       </c>
       <c r="M44" t="n">
-        <v>1302.840530982569</v>
+        <v>1424.780152191812</v>
       </c>
       <c r="N44" t="n">
-        <v>1786.16443695918</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O44" t="n">
-        <v>2190.310506598797</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P44" t="n">
-        <v>2503.082366925374</v>
+        <v>2369.511171075842</v>
       </c>
       <c r="Q44" t="n">
         <v>2527.485738752508</v>
@@ -7679,19 +7679,19 @@
         <v>2467.66113384034</v>
       </c>
       <c r="U44" t="n">
-        <v>2380.551050704864</v>
+        <v>2380.551050704863</v>
       </c>
       <c r="V44" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W44" t="n">
-        <v>2016.491294634375</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X44" t="n">
         <v>1802.188378243852</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.373746907675</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7716,7 @@
         <v>333.1151597216798</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7078824197581</v>
+        <v>204.7078824197579</v>
       </c>
       <c r="H45" t="n">
         <v>107.8723597466996</v>
@@ -7725,19 +7725,19 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J45" t="n">
-        <v>50.54971477505016</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K45" t="n">
-        <v>50.54971477505016</v>
+        <v>420.8771734726447</v>
       </c>
       <c r="L45" t="n">
-        <v>484.7297887091889</v>
+        <v>855.0572474067835</v>
       </c>
       <c r="M45" t="n">
-        <v>1049.533970937679</v>
+        <v>907.0577155570791</v>
       </c>
       <c r="N45" t="n">
-        <v>1500.205486869127</v>
+        <v>1500.205486869128</v>
       </c>
       <c r="O45" t="n">
         <v>1967.311585229522</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.3616824695733</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C46" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D46" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E46" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F46" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="G46" t="n">
         <v>50.54971477505016</v>
@@ -7813,43 +7813,43 @@
         <v>254.6675339992996</v>
       </c>
       <c r="M46" t="n">
-        <v>414.0353339933177</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N46" t="n">
-        <v>572.8481813772848</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O46" t="n">
-        <v>708.6189972190884</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P46" t="n">
-        <v>803.5102093354883</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q46" t="n">
-        <v>803.5102093354883</v>
+        <v>787.5232633082425</v>
       </c>
       <c r="R46" t="n">
-        <v>803.5102093354883</v>
+        <v>787.5232633082425</v>
       </c>
       <c r="S46" t="n">
-        <v>762.2208754549582</v>
+        <v>746.2339294277124</v>
       </c>
       <c r="T46" t="n">
-        <v>530.1925775523612</v>
+        <v>681.9328556130995</v>
       </c>
       <c r="U46" t="n">
-        <v>410.7442513458078</v>
+        <v>562.484529406546</v>
       </c>
       <c r="V46" t="n">
-        <v>317.7361709922146</v>
+        <v>469.4764490529528</v>
       </c>
       <c r="W46" t="n">
-        <v>199.306993597598</v>
+        <v>351.0472716583362</v>
       </c>
       <c r="X46" t="n">
-        <v>123.4977617857075</v>
+        <v>287.5220316416962</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.18982706596884</v>
+        <v>69.18982706596901</v>
       </c>
     </row>
   </sheetData>
@@ -8690,25 +8690,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729913</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>97.76580185407856</v>
       </c>
       <c r="M11" t="n">
-        <v>534.0847761085864</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N11" t="n">
-        <v>80.3450361026385</v>
+        <v>531.6378514309458</v>
       </c>
       <c r="O11" t="n">
-        <v>495.0402356415689</v>
+        <v>372.4906829999657</v>
       </c>
       <c r="P11" t="n">
-        <v>102.4071485758795</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.3193369605982</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>152.9229635472797</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062076</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,16 +8778,16 @@
         <v>486.200123225035</v>
       </c>
       <c r="N12" t="n">
-        <v>24.00592370515631</v>
+        <v>475.2987390334636</v>
       </c>
       <c r="O12" t="n">
-        <v>40.19667328157168</v>
+        <v>40.19667328157169</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>230.2785172457164</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.1354488264178</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8933,19 +8933,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>534.0847761085864</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N14" t="n">
-        <v>80.3450361026385</v>
+        <v>80.34503610263853</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>219.9891830777142</v>
       </c>
       <c r="P14" t="n">
-        <v>102.4071485758795</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774052</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9009,16 +9009,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>43.52671764789214</v>
       </c>
       <c r="M15" t="n">
-        <v>34.9073078967277</v>
+        <v>430.6510823324452</v>
       </c>
       <c r="N15" t="n">
-        <v>24.00592370515631</v>
+        <v>24.00592370515632</v>
       </c>
       <c r="O15" t="n">
-        <v>448.6675317989914</v>
+        <v>491.489488609879</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9167,22 +9167,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>97.76580185407856</v>
       </c>
       <c r="M17" t="n">
-        <v>215.9692613877539</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N17" t="n">
-        <v>531.6378514309457</v>
+        <v>90.91749021981981</v>
       </c>
       <c r="O17" t="n">
-        <v>86.81188247023911</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.4392174774051</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>60.64445572062075</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>362.0458168538826</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>486.2001232250349</v>
+        <v>192.0443884340518</v>
       </c>
       <c r="N18" t="n">
-        <v>24.00592370515631</v>
+        <v>24.00592370515632</v>
       </c>
       <c r="O18" t="n">
-        <v>491.4894886098789</v>
+        <v>491.489488609879</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>96.65426516890469</v>
+        <v>96.6542651689047</v>
       </c>
       <c r="K20" t="n">
-        <v>134.1476750521908</v>
+        <v>103.2182277729913</v>
       </c>
       <c r="L20" t="n">
-        <v>542.9595789155856</v>
+        <v>257.9578541477375</v>
       </c>
       <c r="M20" t="n">
         <v>534.0847761085864</v>
       </c>
       <c r="N20" t="n">
-        <v>531.6378514309457</v>
+        <v>531.6378514309458</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4071485758795</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.4392174774051</v>
+        <v>116.4392174774052</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,25 +9480,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>288.2557672237625</v>
       </c>
       <c r="L21" t="n">
-        <v>102.5173397330409</v>
+        <v>43.52671764789214</v>
       </c>
       <c r="M21" t="n">
-        <v>486.2001232250349</v>
+        <v>486.200123225035</v>
       </c>
       <c r="N21" t="n">
-        <v>475.2987390334635</v>
+        <v>24.00592370515632</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4894886098789</v>
+        <v>491.489488609879</v>
       </c>
       <c r="P21" t="n">
-        <v>48.12815827408364</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.14143670839249</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>127.5837124481047</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729913</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>82.79196078027915</v>
+        <v>534.0847761085864</v>
       </c>
       <c r="N23" t="n">
-        <v>97.01652848661895</v>
+        <v>531.6378514309458</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>102.4071485758795</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774052</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K24" t="n">
-        <v>60.64445572062075</v>
+        <v>127.8297769465154</v>
       </c>
       <c r="L24" t="n">
-        <v>271.1380291510332</v>
+        <v>43.52671764789214</v>
       </c>
       <c r="M24" t="n">
-        <v>34.9073078967277</v>
+        <v>486.200123225035</v>
       </c>
       <c r="N24" t="n">
-        <v>475.2987390334633</v>
+        <v>475.2987390334636</v>
       </c>
       <c r="O24" t="n">
-        <v>491.4894886098787</v>
+        <v>491.489488609879</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,28 +9951,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K27" t="n">
-        <v>60.64445572062074</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>178.3408210039152</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>477.1568552297571</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.14143670839249</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10191,7 +10191,7 @@
         <v>73.01055823968255</v>
       </c>
       <c r="K30" t="n">
-        <v>60.64445572062075</v>
+        <v>60.64445572062076</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.2296771712657</v>
+        <v>479.229677171266</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>105.1615370726854</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>284.904290536875</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839249</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>96.6542651689047</v>
       </c>
       <c r="K35" t="n">
-        <v>163.2973019397104</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10598,7 +10598,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>360.1198357935563</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
@@ -10662,16 +10662,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062076</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>338.1770394191436</v>
       </c>
       <c r="M36" t="n">
-        <v>87.43303330106642</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>96.6542651689047</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10835,10 +10835,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>360.1198357935568</v>
       </c>
       <c r="P38" t="n">
-        <v>160.246586220124</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10905,19 +10905,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>43.52671764789213</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726861</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>334.5837809045895</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11060,13 +11060,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>163.2973019397105</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>326.2758591378784</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11139,19 +11139,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062076</v>
       </c>
       <c r="L42" t="n">
-        <v>43.52671764789213</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>543.72726831929</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>277.1978178815465</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>96.65426516890469</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>310.4592673327757</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.0890880098636</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,19 +11373,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>60.64445572062075</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>87.43303330106664</v>
       </c>
       <c r="N45" t="n">
-        <v>479.2296771712662</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>239.8776541311001</v>
+        <v>142.9021543486011</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.6197917010056</v>
       </c>
       <c r="F11" t="n">
         <v>280.7916077889828</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>18.9569054414007</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>79.83059243537575</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>123.0708631572776</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>229.6915098470265</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.8850331288904</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>248.8963500865721</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.6197917010056</v>
       </c>
       <c r="F14" t="n">
-        <v>280.7916077889828</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>239.1397316938971</v>
+        <v>282.1305160374087</v>
       </c>
       <c r="H14" t="n">
-        <v>194.1880049094285</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>18.9569054414007</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>174.7974120510099</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.3883658759718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26320,28 +26320,28 @@
         <v>612701.3052058434</v>
       </c>
       <c r="E2" t="n">
-        <v>535429.4384958141</v>
+        <v>535429.4384958133</v>
       </c>
       <c r="F2" t="n">
-        <v>535429.438495815</v>
+        <v>535429.438495814</v>
       </c>
       <c r="G2" t="n">
+        <v>614099.2483953452</v>
+      </c>
+      <c r="H2" t="n">
         <v>614099.2483953456</v>
       </c>
-      <c r="H2" t="n">
-        <v>614099.2483953455</v>
-      </c>
       <c r="I2" t="n">
+        <v>614099.2483953453</v>
+      </c>
+      <c r="J2" t="n">
+        <v>614099.2483953448</v>
+      </c>
+      <c r="K2" t="n">
+        <v>614099.2483953449</v>
+      </c>
+      <c r="L2" t="n">
         <v>614099.2483953452</v>
-      </c>
-      <c r="J2" t="n">
-        <v>614099.2483953451</v>
-      </c>
-      <c r="K2" t="n">
-        <v>614099.2483953451</v>
-      </c>
-      <c r="L2" t="n">
-        <v>614099.2483953454</v>
       </c>
       <c r="M2" t="n">
         <v>614099.2483953448</v>
@@ -26350,10 +26350,10 @@
         <v>614099.2483953447</v>
       </c>
       <c r="O2" t="n">
-        <v>614099.2483953451</v>
+        <v>614099.2483953449</v>
       </c>
       <c r="P2" t="n">
-        <v>614099.2483953451</v>
+        <v>614099.2483953445</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356901.2563746109</v>
+        <v>356901.256374611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909412</v>
+        <v>72236.38115909407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>120312.4428466251</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909407</v>
+        <v>72236.38115909415</v>
       </c>
       <c r="M3" t="n">
         <v>103055.0537486387</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.7796507638</v>
+        <v>8860.779650763778</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>415219.1534460828</v>
       </c>
       <c r="E4" t="n">
-        <v>292825.0084179229</v>
+        <v>292825.008417923</v>
       </c>
       <c r="F4" t="n">
-        <v>292825.0084179229</v>
+        <v>292825.008417923</v>
       </c>
       <c r="G4" t="n">
-        <v>348860.1176001111</v>
+        <v>348860.117600111</v>
       </c>
       <c r="H4" t="n">
-        <v>348860.1176001109</v>
+        <v>348860.117600111</v>
       </c>
       <c r="I4" t="n">
         <v>348860.1176001111</v>
       </c>
       <c r="J4" t="n">
+        <v>338193.2769757741</v>
+      </c>
+      <c r="K4" t="n">
+        <v>338193.2769757741</v>
+      </c>
+      <c r="L4" t="n">
         <v>338193.2769757742</v>
-      </c>
-      <c r="K4" t="n">
-        <v>338193.2769757742</v>
-      </c>
-      <c r="L4" t="n">
-        <v>338193.2769757741</v>
       </c>
       <c r="M4" t="n">
         <v>339446.9901772323</v>
       </c>
       <c r="N4" t="n">
+        <v>339446.9901772323</v>
+      </c>
+      <c r="O4" t="n">
         <v>339446.9901772322</v>
-      </c>
-      <c r="O4" t="n">
-        <v>339446.9901772323</v>
       </c>
       <c r="P4" t="n">
         <v>339446.9901772323</v>
@@ -26482,22 +26482,22 @@
         <v>41524.90096894783</v>
       </c>
       <c r="G5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="H5" t="n">
-        <v>49115.95137852768</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="I5" t="n">
-        <v>49115.95137852767</v>
+        <v>49115.95137852769</v>
       </c>
       <c r="J5" t="n">
         <v>65082.64625607467</v>
       </c>
       <c r="K5" t="n">
-        <v>65082.64625607467</v>
+        <v>65082.64625607464</v>
       </c>
       <c r="L5" t="n">
-        <v>65082.64625607467</v>
+        <v>65082.64625607464</v>
       </c>
       <c r="M5" t="n">
         <v>55600.50041746882</v>
@@ -26506,10 +26506,10 @@
         <v>55600.50041746882</v>
       </c>
       <c r="O5" t="n">
-        <v>55600.50041746883</v>
+        <v>55600.50041746882</v>
       </c>
       <c r="P5" t="n">
-        <v>55600.50041746883</v>
+        <v>55600.50041746882</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163854.5517597606</v>
+        <v>163850.1831872934</v>
       </c>
       <c r="C6" t="n">
-        <v>163854.5517597606</v>
+        <v>163850.1831872934</v>
       </c>
       <c r="D6" t="n">
-        <v>163854.5517597606</v>
+        <v>163850.1831872934</v>
       </c>
       <c r="E6" t="n">
-        <v>-155821.7272656676</v>
+        <v>-156067.5704216046</v>
       </c>
       <c r="F6" t="n">
-        <v>201079.5291089443</v>
+        <v>200833.6859530071</v>
       </c>
       <c r="G6" t="n">
-        <v>143886.7982576127</v>
+        <v>143886.7982576124</v>
       </c>
       <c r="H6" t="n">
-        <v>216123.1794167069</v>
+        <v>216123.179416707</v>
       </c>
       <c r="I6" t="n">
-        <v>216123.1794167064</v>
+        <v>216123.1794167066</v>
       </c>
       <c r="J6" t="n">
-        <v>90510.88231687114</v>
+        <v>90510.88231687091</v>
       </c>
       <c r="K6" t="n">
-        <v>210823.3251634962</v>
+        <v>210823.3251634963</v>
       </c>
       <c r="L6" t="n">
-        <v>138586.9440044026</v>
+        <v>138586.9440044021</v>
       </c>
       <c r="M6" t="n">
         <v>115996.704052005</v>
@@ -26561,7 +26561,7 @@
         <v>210190.9781498801</v>
       </c>
       <c r="P6" t="n">
-        <v>219051.7578006439</v>
+        <v>219051.7578006433</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G2" t="n">
         <v>219.5135474428162</v>
@@ -26713,13 +26713,13 @@
         <v>101.3714510123223</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="M2" t="n">
         <v>166.0499518471044</v>
       </c>
       <c r="N2" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="O2" t="n">
         <v>166.0499518471044</v>
@@ -26808,19 +26808,19 @@
         <v>451.2928153283073</v>
       </c>
       <c r="I4" t="n">
-        <v>451.292815328307</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="J4" t="n">
         <v>877.2596374066325</v>
       </c>
       <c r="K4" t="n">
-        <v>877.2596374066325</v>
+        <v>877.259637406632</v>
       </c>
       <c r="L4" t="n">
-        <v>877.2596374066325</v>
+        <v>877.259637406632</v>
       </c>
       <c r="M4" t="n">
-        <v>631.871434688127</v>
+        <v>631.8714346881269</v>
       </c>
       <c r="N4" t="n">
         <v>631.871434688127</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.29547644886765</v>
+        <v>90.29547644886759</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.07597456345461</v>
+        <v>11.07597456345472</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886759</v>
+        <v>90.29547644886769</v>
       </c>
       <c r="M2" t="n">
-        <v>64.67850083478211</v>
+        <v>64.67850083478197</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345475</v>
+        <v>11.07597456345472</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9668220783254</v>
+        <v>425.9668220783252</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.9046126098018</v>
+        <v>205.9046126098022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886765</v>
+        <v>90.29547644886759</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345461</v>
+        <v>11.07597456345472</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="12">
@@ -28175,10 +28175,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G12" t="n">
         <v>127.1232045289026</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04459898495824177</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.04459898495781545</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y12" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="13">
@@ -28245,40 +28245,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J13" t="n">
-        <v>129.2180709939485</v>
+        <v>40.60739031761008</v>
       </c>
       <c r="K13" t="n">
-        <v>97.94315950317299</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>57.33576918556204</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="R13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="S13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.44188278383303</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>89.82078719507339</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>129.2180709939485</v>
+        <v>89.82078719507336</v>
       </c>
       <c r="X15" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J16" t="n">
         <v>40.60739031761008</v>
       </c>
       <c r="K16" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>57.33576918556199</v>
       </c>
       <c r="O16" t="n">
-        <v>41.50869261858975</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.82707656697309</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="R16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="S16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="17">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>116.433692543606</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>52.34858135803015</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.44188278383303</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>145.364587523205</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2889227376699</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28764,28 +28764,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.82707656697309</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S19" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="U19" t="n">
-        <v>16.74310686777096</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>219.5135474428162</v>
+        <v>87.63065826605458</v>
       </c>
       <c r="W19" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="Y19" t="n">
         <v>219.5135474428162</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -28892,13 +28892,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H21" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.038591824491</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>88.29452389798938</v>
       </c>
     </row>
     <row r="22">
@@ -29001,25 +29001,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.82707656697309</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R22" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="U22" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="V22" t="n">
+        <v>4.155951813784128</v>
+      </c>
+      <c r="W22" t="n">
         <v>219.5135474428162</v>
-      </c>
-      <c r="W22" t="n">
-        <v>87.63065826605441</v>
       </c>
       <c r="X22" t="n">
         <v>219.5135474428162</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,10 +29126,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>96.91417558879964</v>
       </c>
       <c r="H24" t="n">
         <v>95.86716744632758</v>
@@ -29168,10 +29168,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2889227376699</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>146.3675497808345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29196,13 +29196,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>48.6240757201615</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>99.25965776176412</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.82707656697309</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R25" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>206.9263923888292</v>
@@ -29253,7 +29253,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W25" t="n">
         <v>219.5135474428162</v>
@@ -29299,13 +29299,13 @@
         <v>101.3714510123223</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L26" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="M26" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546916</v>
       </c>
       <c r="N26" t="n">
         <v>101.3714510123223</v>
@@ -29314,10 +29314,10 @@
         <v>101.3714510123223</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>101.3714510123223</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>56.34270386546956</v>
       </c>
       <c r="R26" t="n">
         <v>101.3714510123223</v>
@@ -29533,10 +29533,10 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K29" t="n">
-        <v>101.3714510123223</v>
+        <v>3.946244527646968</v>
       </c>
       <c r="L29" t="n">
         <v>101.3714510123223</v>
@@ -29545,7 +29545,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="N29" t="n">
-        <v>56.34270386546933</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O29" t="n">
         <v>101.3714510123223</v>
@@ -29557,7 +29557,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="R29" t="n">
-        <v>101.3714510123223</v>
+        <v>52.39645933782047</v>
       </c>
       <c r="S29" t="n">
         <v>101.3714510123223</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="C32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="D32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="E32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="F32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="G32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="H32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="I32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="J32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="K32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="L32" t="n">
-        <v>3.946244527648958</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="M32" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="O32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="P32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546638</v>
       </c>
       <c r="R32" t="n">
-        <v>52.39645933782047</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="S32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="T32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="U32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="V32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="W32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="X32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="C34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="D34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="E34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="F34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="G34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="H34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="I34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="J34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="L34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123197</v>
       </c>
       <c r="M34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="N34" t="n">
-        <v>101.3714510123235</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="O34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="R34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="S34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="T34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="U34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="V34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="W34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123224</v>
       </c>
     </row>
     <row r="35">
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.82707656697309</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R37" t="n">
         <v>136.0388409905457</v>
@@ -30195,22 +30195,22 @@
         <v>166.0499518471044</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698068</v>
       </c>
       <c r="U37" t="n">
         <v>166.0499518471044</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8887999698066</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X37" t="n">
         <v>166.0499518471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="E38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="F38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="G38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="I38" t="n">
         <v>148.1749764353493</v>
@@ -30271,25 +30271,25 @@
         <v>52.39645933782047</v>
       </c>
       <c r="S38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="39">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D40" t="n">
-        <v>139.380022363218</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H40" t="n">
         <v>155.4085199241127</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.665924689675762</v>
       </c>
       <c r="U40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="41">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30660,25 +30660,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.82707656697309</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R43" t="n">
-        <v>123.8776891132475</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S43" t="n">
         <v>166.0499518471044</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698071</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>166.0499518471044</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X43" t="n">
         <v>166.0499518471044</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.82707656697309</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>136.0388409905457</v>
@@ -30906,7 +30906,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U46" t="n">
         <v>166.0499518471044</v>
@@ -30918,10 +30918,10 @@
         <v>166.0499518471044</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8887999698063</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.0499518471044</v>
+        <v>3.665924689675791</v>
       </c>
     </row>
   </sheetData>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H11" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I11" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J11" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K11" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L11" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M11" t="n">
         <v>104.3643537168799</v>
@@ -31777,13 +31777,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P11" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R11" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S11" t="n">
         <v>13.54397050151076</v>
@@ -31792,7 +31792,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H12" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I12" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J12" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K12" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L12" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M12" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N12" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O12" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P12" t="n">
         <v>60.72604775005968</v>
@@ -31862,16 +31862,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R12" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S12" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T12" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,28 +31914,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I13" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J13" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K13" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L13" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M13" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N13" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O13" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P13" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q13" t="n">
         <v>22.32489136587476</v>
@@ -31944,7 +31944,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S13" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T13" t="n">
         <v>1.139148728906865</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H14" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I14" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J14" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K14" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L14" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M14" t="n">
         <v>104.3643537168799</v>
@@ -32014,13 +32014,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P14" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R14" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S14" t="n">
         <v>13.54397050151076</v>
@@ -32029,7 +32029,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H15" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I15" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J15" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K15" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L15" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M15" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N15" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O15" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P15" t="n">
         <v>60.72604775005968</v>
@@ -32099,16 +32099,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R15" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S15" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T15" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,28 +32151,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I16" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J16" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K16" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L16" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M16" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N16" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O16" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P16" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q16" t="n">
         <v>22.32489136587476</v>
@@ -32181,7 +32181,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S16" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T16" t="n">
         <v>1.139148728906865</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H17" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I17" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J17" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K17" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L17" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M17" t="n">
         <v>104.3643537168799</v>
@@ -32251,13 +32251,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P17" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R17" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S17" t="n">
         <v>13.54397050151076</v>
@@ -32266,7 +32266,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H18" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I18" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J18" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K18" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L18" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M18" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N18" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O18" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P18" t="n">
         <v>60.72604775005968</v>
@@ -32336,16 +32336,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R18" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S18" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T18" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,28 +32388,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I19" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J19" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K19" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L19" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M19" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N19" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O19" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P19" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q19" t="n">
         <v>22.32489136587476</v>
@@ -32418,7 +32418,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S19" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T19" t="n">
         <v>1.139148728906865</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H20" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I20" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J20" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K20" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L20" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M20" t="n">
         <v>104.3643537168799</v>
@@ -32488,13 +32488,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P20" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R20" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S20" t="n">
         <v>13.54397050151076</v>
@@ -32503,7 +32503,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H21" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I21" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J21" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K21" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L21" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M21" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N21" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O21" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P21" t="n">
         <v>60.72604775005968</v>
@@ -32573,16 +32573,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R21" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S21" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T21" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,28 +32625,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I22" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J22" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K22" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L22" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M22" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N22" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O22" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P22" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q22" t="n">
         <v>22.32489136587476</v>
@@ -32655,7 +32655,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S22" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T22" t="n">
         <v>1.139148728906865</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H23" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J23" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K23" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L23" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M23" t="n">
         <v>104.3643537168799</v>
@@ -32725,13 +32725,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P23" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R23" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S23" t="n">
         <v>13.54397050151076</v>
@@ -32740,7 +32740,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H24" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I24" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J24" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K24" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L24" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M24" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N24" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O24" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P24" t="n">
         <v>60.72604775005968</v>
@@ -32810,16 +32810,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R24" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S24" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T24" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,28 +32862,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I25" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J25" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K25" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L25" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M25" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N25" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O25" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P25" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q25" t="n">
         <v>22.32489136587476</v>
@@ -32892,7 +32892,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S25" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T25" t="n">
         <v>1.139148728906865</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5943596489966321</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H26" t="n">
-        <v>6.08698575528676</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I26" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J26" t="n">
-        <v>50.44553225902795</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K26" t="n">
-        <v>75.6047762010554</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L26" t="n">
-        <v>93.7944103090361</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M26" t="n">
         <v>104.3643537168799</v>
@@ -32959,25 +32959,25 @@
         <v>106.0530780695916</v>
       </c>
       <c r="O26" t="n">
-        <v>100.1429143098814</v>
+        <v>100.1429143098813</v>
       </c>
       <c r="P26" t="n">
-        <v>85.469660475277</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.1841555455851</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R26" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S26" t="n">
-        <v>13.54397050151077</v>
+        <v>13.54397050151076</v>
       </c>
       <c r="T26" t="n">
-        <v>2.601809363482758</v>
+        <v>2.601809363482757</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04754877191973056</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H27" t="n">
-        <v>3.07131143244135</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I27" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J27" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K27" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L27" t="n">
-        <v>69.04871592325567</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M27" t="n">
-        <v>80.57659466491221</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N27" t="n">
-        <v>82.70921736255202</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O27" t="n">
-        <v>75.66277532953944</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P27" t="n">
-        <v>60.7260477500597</v>
+        <v>60.72604775005968</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.59375473650001</v>
+        <v>40.5937547365</v>
       </c>
       <c r="R27" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S27" t="n">
-        <v>5.906904594182154</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T27" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,31 +33096,31 @@
         <v>0.2666092769782025</v>
       </c>
       <c r="H28" t="n">
-        <v>2.370398844406203</v>
+        <v>2.370398844406202</v>
       </c>
       <c r="I28" t="n">
-        <v>8.017668074944494</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J28" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K28" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L28" t="n">
-        <v>39.63752832455932</v>
+        <v>39.63752832455931</v>
       </c>
       <c r="M28" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N28" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O28" t="n">
-        <v>37.68400944051904</v>
+        <v>37.68400944051903</v>
       </c>
       <c r="P28" t="n">
-        <v>32.24518019016369</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q28" t="n">
         <v>22.32489136587476</v>
@@ -33129,13 +33129,13 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S28" t="n">
-        <v>4.646272581520129</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T28" t="n">
         <v>1.139148728906865</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01454232419881107</v>
+        <v>0.01454232419881106</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H29" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I29" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J29" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K29" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L29" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M29" t="n">
         <v>104.3643537168799</v>
@@ -33199,13 +33199,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P29" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R29" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S29" t="n">
         <v>13.54397050151076</v>
@@ -33214,7 +33214,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H30" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I30" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J30" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K30" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L30" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M30" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N30" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O30" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P30" t="n">
         <v>60.72604775005968</v>
@@ -33284,16 +33284,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R30" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S30" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T30" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,28 +33336,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I31" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J31" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K31" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L31" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M31" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N31" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O31" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P31" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q31" t="n">
         <v>22.32489136587476</v>
@@ -33366,7 +33366,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S31" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T31" t="n">
         <v>1.139148728906865</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H32" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I32" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J32" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K32" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L32" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M32" t="n">
         <v>104.3643537168799</v>
@@ -33436,13 +33436,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P32" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R32" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S32" t="n">
         <v>13.54397050151076</v>
@@ -33451,7 +33451,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H33" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I33" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J33" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K33" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L33" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M33" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N33" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O33" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P33" t="n">
         <v>60.72604775005968</v>
@@ -33521,16 +33521,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R33" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S33" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T33" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,28 +33573,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I34" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J34" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K34" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L34" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M34" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N34" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O34" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P34" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q34" t="n">
         <v>22.32489136587476</v>
@@ -33603,7 +33603,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S34" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T34" t="n">
         <v>1.139148728906865</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H35" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I35" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J35" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K35" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L35" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M35" t="n">
         <v>104.3643537168799</v>
@@ -33673,13 +33673,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P35" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R35" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S35" t="n">
         <v>13.54397050151076</v>
@@ -33688,7 +33688,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H36" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I36" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J36" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K36" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L36" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M36" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N36" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O36" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P36" t="n">
         <v>60.72604775005968</v>
@@ -33758,16 +33758,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R36" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S36" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T36" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,28 +33810,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I37" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J37" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K37" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L37" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M37" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N37" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O37" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P37" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q37" t="n">
         <v>22.32489136587476</v>
@@ -33840,7 +33840,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S37" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T37" t="n">
         <v>1.139148728906865</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H38" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I38" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J38" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K38" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L38" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M38" t="n">
         <v>104.3643537168799</v>
@@ -33910,13 +33910,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P38" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R38" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S38" t="n">
         <v>13.54397050151076</v>
@@ -33925,7 +33925,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H39" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I39" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J39" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K39" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L39" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M39" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N39" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O39" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P39" t="n">
         <v>60.72604775005968</v>
@@ -33995,16 +33995,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R39" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S39" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T39" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,28 +34047,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I40" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J40" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K40" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L40" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M40" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N40" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O40" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P40" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q40" t="n">
         <v>22.32489136587476</v>
@@ -34077,7 +34077,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S40" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T40" t="n">
         <v>1.139148728906865</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H41" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I41" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J41" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K41" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L41" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M41" t="n">
         <v>104.3643537168799</v>
@@ -34147,13 +34147,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P41" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R41" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S41" t="n">
         <v>13.54397050151076</v>
@@ -34162,7 +34162,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H42" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I42" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J42" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K42" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L42" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M42" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N42" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O42" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P42" t="n">
         <v>60.72604775005968</v>
@@ -34232,16 +34232,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R42" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S42" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T42" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,28 +34284,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I43" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J43" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K43" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L43" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M43" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N43" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O43" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P43" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q43" t="n">
         <v>22.32489136587476</v>
@@ -34314,7 +34314,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S43" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T43" t="n">
         <v>1.139148728906865</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.594359648996632</v>
+        <v>0.5943596489966319</v>
       </c>
       <c r="H44" t="n">
-        <v>6.086985755286759</v>
+        <v>6.086985755286757</v>
       </c>
       <c r="I44" t="n">
-        <v>22.91405036794268</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J44" t="n">
-        <v>50.44553225902794</v>
+        <v>50.44553225902793</v>
       </c>
       <c r="K44" t="n">
-        <v>75.60477620105539</v>
+        <v>75.60477620105537</v>
       </c>
       <c r="L44" t="n">
-        <v>93.79441030903608</v>
+        <v>93.79441030903605</v>
       </c>
       <c r="M44" t="n">
         <v>104.3643537168799</v>
@@ -34384,13 +34384,13 @@
         <v>100.1429143098813</v>
       </c>
       <c r="P44" t="n">
-        <v>85.46966047527698</v>
+        <v>85.46966047527697</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.18415554558509</v>
+        <v>64.18415554558507</v>
       </c>
       <c r="R44" t="n">
-        <v>37.33544430128472</v>
+        <v>37.33544430128471</v>
       </c>
       <c r="S44" t="n">
         <v>13.54397050151076</v>
@@ -34399,7 +34399,7 @@
         <v>2.601809363482757</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04754877191973055</v>
+        <v>0.04754877191973054</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3180104480456982</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H45" t="n">
-        <v>3.071311432441349</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I45" t="n">
-        <v>10.94904393490672</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J45" t="n">
-        <v>30.04501342698415</v>
+        <v>30.04501342698414</v>
       </c>
       <c r="K45" t="n">
-        <v>51.35171344604593</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L45" t="n">
-        <v>69.04871592325566</v>
+        <v>69.04871592325564</v>
       </c>
       <c r="M45" t="n">
-        <v>80.57659466491219</v>
+        <v>80.57659466491218</v>
       </c>
       <c r="N45" t="n">
-        <v>82.70921736255201</v>
+        <v>82.709217362552</v>
       </c>
       <c r="O45" t="n">
-        <v>75.66277532953943</v>
+        <v>75.66277532953941</v>
       </c>
       <c r="P45" t="n">
         <v>60.72604775005968</v>
@@ -34469,16 +34469,16 @@
         <v>40.5937547365</v>
       </c>
       <c r="R45" t="n">
-        <v>19.74454343217064</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S45" t="n">
-        <v>5.906904594182153</v>
+        <v>5.906904594182152</v>
       </c>
       <c r="T45" t="n">
         <v>1.281805270850862</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02092174000300647</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,28 +34521,28 @@
         <v>2.370398844406202</v>
       </c>
       <c r="I46" t="n">
-        <v>8.017668074944492</v>
+        <v>8.01766807494449</v>
       </c>
       <c r="J46" t="n">
-        <v>18.84927588235892</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K46" t="n">
-        <v>30.97515054346752</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L46" t="n">
         <v>39.63752832455931</v>
       </c>
       <c r="M46" t="n">
-        <v>41.79221602668314</v>
+        <v>41.79221602668313</v>
       </c>
       <c r="N46" t="n">
-        <v>40.79849053976442</v>
+        <v>40.79849053976441</v>
       </c>
       <c r="O46" t="n">
         <v>37.68400944051903</v>
       </c>
       <c r="P46" t="n">
-        <v>32.24518019016368</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q46" t="n">
         <v>22.32489136587476</v>
@@ -34551,7 +34551,7 @@
         <v>11.9877225812199</v>
       </c>
       <c r="S46" t="n">
-        <v>4.646272581520128</v>
+        <v>4.646272581520126</v>
       </c>
       <c r="T46" t="n">
         <v>1.139148728906865</v>
@@ -35410,25 +35410,25 @@
         <v>123.1713345547912</v>
       </c>
       <c r="K11" t="n">
-        <v>318.1708085695228</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>445.193777061507</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>451.2928153283073</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O11" t="n">
-        <v>408.2283531713298</v>
+        <v>285.6788005297266</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.88011948319302</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>90.90778770284894</v>
+        <v>79.9124053075971</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>438.5657312466048</v>
@@ -35498,16 +35498,16 @@
         <v>451.2928153283073</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q12" t="n">
-        <v>157.1370805373239</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.61068067633843</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>162.8619340311288</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L13" t="n">
-        <v>141.260840850074</v>
+        <v>198.596610035636</v>
       </c>
       <c r="M13" t="n">
-        <v>160.9775757515334</v>
+        <v>290.195646745482</v>
       </c>
       <c r="N13" t="n">
         <v>160.4170175595628</v>
@@ -35586,7 +35586,7 @@
         <v>95.84970920848468</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3909944269754</v>
+        <v>113.3909944269755</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.481183657513117</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K14" t="n">
         <v>318.1708085695228</v>
@@ -35659,13 +35659,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>408.2283531713298</v>
+        <v>133.1773006074751</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.570270380471</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K15" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L15" t="n">
-        <v>438.5657312466048</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>395.7437744357175</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>408.4708585174197</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="P15" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q15" t="n">
         <v>199.9590373482113</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>194.1368455219043</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L16" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M16" t="n">
-        <v>160.9775757515334</v>
+        <v>290.195646745482</v>
       </c>
       <c r="N16" t="n">
-        <v>160.4170175595628</v>
+        <v>217.7527867451248</v>
       </c>
       <c r="O16" t="n">
-        <v>178.6509308426337</v>
+        <v>137.142238224044</v>
       </c>
       <c r="P16" t="n">
-        <v>225.0677802024332</v>
+        <v>95.84970920848468</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>113.3909944269755</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>318.1708085695228</v>
       </c>
       <c r="L17" t="n">
-        <v>445.193777061507</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>133.1773006074748</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N17" t="n">
-        <v>451.2928153283073</v>
+        <v>10.57245411718128</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>408.2283531713298</v>
       </c>
       <c r="P17" t="n">
         <v>315.9311720470479</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L18" t="n">
-        <v>318.5190992059905</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M18" t="n">
-        <v>451.2928153283073</v>
+        <v>157.1370805373241</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>451.2928153283073</v>
       </c>
       <c r="P18" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L19" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M19" t="n">
         <v>160.9775757515334</v>
@@ -36121,10 +36121,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>30.92944727919951</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>445.193777061507</v>
+        <v>160.1920522936589</v>
       </c>
       <c r="M20" t="n">
         <v>451.2928153283073</v>
@@ -36136,7 +36136,7 @@
         <v>408.2283531713298</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K21" t="n">
-        <v>283.1603523957315</v>
+        <v>227.6113115031417</v>
       </c>
       <c r="L21" t="n">
-        <v>58.99062208514873</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>451.2928153283073</v>
       </c>
       <c r="N21" t="n">
-        <v>451.2928153283073</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>451.2928153283073</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L22" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M22" t="n">
         <v>160.9775757515334</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>123.1713345547912</v>
+        <v>30.92944727919997</v>
       </c>
       <c r="K23" t="n">
-        <v>318.1708085695228</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>445.193777061507</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N23" t="n">
-        <v>16.67149238398045</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O23" t="n">
         <v>408.2283531713298</v>
       </c>
       <c r="P23" t="n">
-        <v>315.9311720470479</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.570270380471</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>67.18532122589463</v>
       </c>
       <c r="L24" t="n">
-        <v>227.6113115031411</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="N24" t="n">
-        <v>451.292815328307</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="O24" t="n">
-        <v>451.292815328307</v>
+        <v>451.2928153283073</v>
       </c>
       <c r="P24" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L25" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M25" t="n">
         <v>160.9775757515334</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.5427855671136</v>
+        <v>224.5427855671135</v>
       </c>
       <c r="K26" t="n">
-        <v>318.1708085695228</v>
+        <v>419.5422595818451</v>
       </c>
       <c r="L26" t="n">
         <v>546.5652280738293</v>
       </c>
       <c r="M26" t="n">
-        <v>602.9470837727255</v>
+        <v>557.9183366258723</v>
       </c>
       <c r="N26" t="n">
         <v>589.5774166452632</v>
@@ -36610,13 +36610,13 @@
         <v>509.5998041836521</v>
       </c>
       <c r="P26" t="n">
-        <v>417.3026230593703</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.9129742459405</v>
+        <v>260.9417213927933</v>
       </c>
       <c r="R26" t="n">
-        <v>48.97499167450185</v>
+        <v>48.97499167450184</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>90.90778770284895</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L27" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M27" t="n">
-        <v>570.5092749782723</v>
+        <v>143.4335131071874</v>
       </c>
       <c r="N27" t="n">
-        <v>599.1391629414633</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O27" t="n">
-        <v>436.9601819481854</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P27" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,22 +36756,22 @@
         <v>166.2902255402781</v>
       </c>
       <c r="L28" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623962</v>
       </c>
       <c r="M28" t="n">
-        <v>262.3490267638557</v>
+        <v>262.3490267638556</v>
       </c>
       <c r="N28" t="n">
         <v>261.7884685718851</v>
       </c>
       <c r="O28" t="n">
-        <v>238.5136892363663</v>
+        <v>238.5136892363662</v>
       </c>
       <c r="P28" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.54437444534922</v>
+        <v>85.54437444534921</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>123.1713345547912</v>
+        <v>224.5427855671135</v>
       </c>
       <c r="K29" t="n">
-        <v>419.5422595818452</v>
+        <v>322.1170530971698</v>
       </c>
       <c r="L29" t="n">
         <v>546.5652280738293</v>
       </c>
       <c r="M29" t="n">
-        <v>602.9470837727255</v>
+        <v>602.9470837727254</v>
       </c>
       <c r="N29" t="n">
-        <v>544.5486694984102</v>
+        <v>589.5774166452632</v>
       </c>
       <c r="O29" t="n">
         <v>509.5998041836521</v>
       </c>
       <c r="P29" t="n">
-        <v>417.3026230593703</v>
+        <v>417.3026230593702</v>
       </c>
       <c r="Q29" t="n">
         <v>260.9417213927933</v>
       </c>
       <c r="R29" t="n">
-        <v>48.97499167450186</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>438.5657312466048</v>
       </c>
       <c r="M30" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N30" t="n">
-        <v>455.2237534661094</v>
+        <v>455.2237534661097</v>
       </c>
       <c r="O30" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P30" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q30" t="n">
         <v>199.9590373482113</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.76406069471224</v>
+        <v>60.76406069471226</v>
       </c>
       <c r="K31" t="n">
         <v>166.2902255402781</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.5427855671135</v>
+        <v>224.5427855671136</v>
       </c>
       <c r="K32" t="n">
-        <v>419.5422595818451</v>
+        <v>419.5422595818453</v>
       </c>
       <c r="L32" t="n">
-        <v>449.140021589156</v>
+        <v>546.5652280738294</v>
       </c>
       <c r="M32" t="n">
-        <v>602.9470837727254</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N32" t="n">
-        <v>589.5774166452632</v>
+        <v>589.5774166452633</v>
       </c>
       <c r="O32" t="n">
-        <v>509.5998041836521</v>
+        <v>509.5998041836522</v>
       </c>
       <c r="P32" t="n">
-        <v>417.3026230593701</v>
+        <v>417.3026230593703</v>
       </c>
       <c r="Q32" t="n">
-        <v>260.9417213927932</v>
+        <v>215.9129742459373</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>48.97499167450196</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L33" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M33" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N33" t="n">
-        <v>81.15561336752914</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O33" t="n">
-        <v>471.8243417781767</v>
+        <v>244.7076172553033</v>
       </c>
       <c r="P33" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q33" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.76406069471219</v>
+        <v>60.76406069471236</v>
       </c>
       <c r="K34" t="n">
-        <v>166.2902255402781</v>
+        <v>166.2902255402782</v>
       </c>
       <c r="L34" t="n">
-        <v>242.6322918623962</v>
+        <v>242.6322918623937</v>
       </c>
       <c r="M34" t="n">
-        <v>262.3490267638556</v>
+        <v>262.3490267638558</v>
       </c>
       <c r="N34" t="n">
-        <v>261.7884685718863</v>
+        <v>261.7884685718852</v>
       </c>
       <c r="O34" t="n">
-        <v>238.5136892363662</v>
+        <v>238.5136892363664</v>
       </c>
       <c r="P34" t="n">
-        <v>197.221160220807</v>
+        <v>197.2211602208071</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.54437444534918</v>
+        <v>85.54437444534935</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>123.1713345547912</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>60.07907416671906</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L35" t="n">
         <v>445.193777061507</v>
@@ -37318,13 +37318,13 @@
         <v>488.2059656329408</v>
       </c>
       <c r="O35" t="n">
-        <v>408.2283531713298</v>
+        <v>273.3079533233172</v>
       </c>
       <c r="P35" t="n">
         <v>315.9311720470479</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>90.90778770284894</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>438.5657312466048</v>
+        <v>294.6503217712515</v>
       </c>
       <c r="M36" t="n">
-        <v>52.52572540433871</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N36" t="n">
         <v>599.1391629414632</v>
       </c>
       <c r="O36" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P36" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q36" t="n">
         <v>199.9590373482113</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L37" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M37" t="n">
         <v>160.9775757515334</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>123.1713345547912</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>318.1708085695228</v>
@@ -37555,13 +37555,13 @@
         <v>488.2059656329408</v>
       </c>
       <c r="O38" t="n">
-        <v>408.2283531713298</v>
+        <v>273.3079533233176</v>
       </c>
       <c r="P38" t="n">
-        <v>57.8394376442445</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K39" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M39" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N39" t="n">
-        <v>599.1391629414632</v>
+        <v>81.15561336752982</v>
       </c>
       <c r="O39" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P39" t="n">
-        <v>286.4556226305058</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q39" t="n">
         <v>199.9590373482113</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L40" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M40" t="n">
         <v>160.9775757515334</v>
@@ -37780,13 +37780,13 @@
         <v>123.1713345547912</v>
       </c>
       <c r="K41" t="n">
-        <v>318.1708085695228</v>
+        <v>60.07907416671912</v>
       </c>
       <c r="L41" t="n">
         <v>445.193777061507</v>
       </c>
       <c r="M41" t="n">
-        <v>243.4838983575993</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N41" t="n">
         <v>488.2059656329408</v>
@@ -37798,7 +37798,7 @@
         <v>315.9311720470479</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K42" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>438.5657312466048</v>
       </c>
       <c r="M42" t="n">
-        <v>570.5092749782723</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N42" t="n">
-        <v>519.7213446141337</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O42" t="n">
-        <v>471.8243417781767</v>
+        <v>237.0011445999748</v>
       </c>
       <c r="P42" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q42" t="n">
         <v>199.9590373482113</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L43" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M43" t="n">
         <v>160.9775757515334</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K44" t="n">
         <v>318.1708085695228</v>
@@ -38026,7 +38026,7 @@
         <v>501.5756327604031</v>
       </c>
       <c r="N44" t="n">
-        <v>488.2059656329408</v>
+        <v>230.1142312301372</v>
       </c>
       <c r="O44" t="n">
         <v>408.2283531713298</v>
@@ -38035,7 +38035,7 @@
         <v>315.9311720470479</v>
       </c>
       <c r="Q44" t="n">
-        <v>24.64987053245851</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L45" t="n">
         <v>438.5657312466048</v>
       </c>
       <c r="M45" t="n">
-        <v>570.5092749782723</v>
+        <v>52.52572540433894</v>
       </c>
       <c r="N45" t="n">
-        <v>455.2237534661099</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O45" t="n">
-        <v>471.8243417781767</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P45" t="n">
-        <v>365.8734409578347</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q45" t="n">
         <v>199.9590373482113</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>64.91877452795582</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L46" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M46" t="n">
         <v>160.9775757515334</v>
